--- a/spotify/d_70_1.xlsx
+++ b/spotify/d_70_1.xlsx
@@ -453,7 +453,7 @@
         <v>3260</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004295470859149561</v>
+        <v>0.0004295470859149563</v>
       </c>
       <c r="F4" t="n">
         <v>0.4801292407108239</v>
@@ -519,7 +519,7 @@
         <v>10399</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001959956397175223</v>
+        <v>0.001959956397175222</v>
       </c>
       <c r="F7" t="n">
         <v>0.5181311018131102</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001310688210661677</v>
+        <v>0.0001310688210661676</v>
       </c>
       <c r="F8" t="n">
         <v>0.3424752247061535</v>
@@ -563,7 +563,7 @@
         <v>789</v>
       </c>
       <c r="E9" t="n">
-        <v>1.514725176014904e-05</v>
+        <v>1.514725176014903e-05</v>
       </c>
       <c r="F9" t="n">
         <v>0.4474555856669678</v>
@@ -651,7 +651,7 @@
         <v>15953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002011280076226352</v>
+        <v>0.002011280076226354</v>
       </c>
       <c r="F13" t="n">
         <v>0.5366558324304803</v>
@@ -673,7 +673,7 @@
         <v>1369</v>
       </c>
       <c r="E14" t="n">
-        <v>1.981787856622794e-05</v>
+        <v>1.981787856622793e-05</v>
       </c>
       <c r="F14" t="n">
         <v>0.4257879656160458</v>
@@ -695,7 +695,7 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8.294999354820704e-06</v>
+        <v>8.294999354820702e-06</v>
       </c>
       <c r="F15" t="n">
         <v>0.4277489925158319</v>
@@ -739,7 +739,7 @@
         <v>1810</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001159352128348343</v>
+        <v>0.0001159352128348342</v>
       </c>
       <c r="F17" t="n">
         <v>0.457653218355405</v>
@@ -827,7 +827,7 @@
         <v>72</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006769694135380245</v>
+        <v>0.0006769694135380246</v>
       </c>
       <c r="F21" t="n">
         <v>0.3442205235116979</v>
@@ -849,7 +849,7 @@
         <v>10317</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000858858737392736</v>
+        <v>0.0008588587373927358</v>
       </c>
       <c r="F22" t="n">
         <v>0.4889766370516617</v>
@@ -871,7 +871,7 @@
         <v>63</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002092441096770156</v>
+        <v>0.002092441096770157</v>
       </c>
       <c r="F23" t="n">
         <v>0.3308839902026275</v>
@@ -959,7 +959,7 @@
         <v>4690</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0004575526788831676</v>
+        <v>0.0004575526788831675</v>
       </c>
       <c r="F27" t="n">
         <v>0.4922159655515072</v>
@@ -1025,7 +1025,7 @@
         <v>8726</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001189499706568757</v>
+        <v>0.001189499706568756</v>
       </c>
       <c r="F30" t="n">
         <v>0.507340389211335</v>
@@ -1091,7 +1091,7 @@
         <v>2578</v>
       </c>
       <c r="E33" t="n">
-        <v>6.426574978378734e-05</v>
+        <v>6.426574978378735e-05</v>
       </c>
       <c r="F33" t="n">
         <v>0.4633613969441846</v>
@@ -1113,7 +1113,7 @@
         <v>12909</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0009894635919540957</v>
+        <v>0.0009894635919540961</v>
       </c>
       <c r="F34" t="n">
         <v>0.5124137931034483</v>
@@ -1157,7 +1157,7 @@
         <v>5108</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002571114960829255</v>
+        <v>0.002571114960829253</v>
       </c>
       <c r="F36" t="n">
         <v>0.5049269452939178</v>
@@ -1179,7 +1179,7 @@
         <v>4128</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0004234037549169158</v>
+        <v>0.0004234037549169157</v>
       </c>
       <c r="F37" t="n">
         <v>0.481373501781665</v>
@@ -1289,7 +1289,7 @@
         <v>250</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001203091059472682</v>
+        <v>0.001203091059472681</v>
       </c>
       <c r="F42" t="n">
         <v>0.4075699396599013</v>
@@ -1355,7 +1355,7 @@
         <v>13400</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000837369855680669</v>
+        <v>0.0008373698556806691</v>
       </c>
       <c r="F45" t="n">
         <v>0.5115318416523236</v>
@@ -1399,7 +1399,7 @@
         <v>5729</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0005978929895935357</v>
+        <v>0.0005978929895935356</v>
       </c>
       <c r="F47" t="n">
         <v>0.5063032367972743</v>
@@ -1421,7 +1421,7 @@
         <v>1733</v>
       </c>
       <c r="E48" t="n">
-        <v>7.550225239248477e-05</v>
+        <v>7.550225239248478e-05</v>
       </c>
       <c r="F48" t="n">
         <v>0.4613474076373797</v>
@@ -1443,7 +1443,7 @@
         <v>4241</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001094298358483012</v>
+        <v>0.001094298358483011</v>
       </c>
       <c r="F49" t="n">
         <v>0.5040705563093623</v>
@@ -1509,7 +1509,7 @@
         <v>8583</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0008423290588105725</v>
+        <v>0.0008423290588105724</v>
       </c>
       <c r="F52" t="n">
         <v>0.5175896900034831</v>
@@ -1575,7 +1575,7 @@
         <v>37</v>
       </c>
       <c r="E55" t="n">
-        <v>2.204157082197182e-05</v>
+        <v>2.204157082197181e-05</v>
       </c>
       <c r="F55" t="n">
         <v>0.2984535047198232</v>
@@ -1641,7 +1641,7 @@
         <v>785</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001690697485634794</v>
+        <v>0.0001690697485634793</v>
       </c>
       <c r="F58" t="n">
         <v>0.4537404580152672</v>
@@ -1663,7 +1663,7 @@
         <v>3311</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0002131431375470511</v>
+        <v>0.000213143137547051</v>
       </c>
       <c r="F59" t="n">
         <v>0.4793548387096774</v>
@@ -1685,7 +1685,7 @@
         <v>4048</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0006871557548351159</v>
+        <v>0.000687155754835116</v>
       </c>
       <c r="F60" t="n">
         <v>0.4717460317460317</v>
@@ -1751,7 +1751,7 @@
         <v>1977</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0002862517880079131</v>
+        <v>0.0002862517880079132</v>
       </c>
       <c r="F63" t="n">
         <v>0.4635059263880225</v>
@@ -1773,7 +1773,7 @@
         <v>1807</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0004215852859547824</v>
+        <v>0.0004215852859547825</v>
       </c>
       <c r="F64" t="n">
         <v>0.4570901261150416</v>
@@ -1795,7 +1795,7 @@
         <v>4452</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0008693043160481278</v>
+        <v>0.0008693043160481279</v>
       </c>
       <c r="F65" t="n">
         <v>0.497822445561139</v>
@@ -1817,7 +1817,7 @@
         <v>7015</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0005847137587088116</v>
+        <v>0.0005847137587088118</v>
       </c>
       <c r="F66" t="n">
         <v>0.5006738544474394</v>
@@ -1861,7 +1861,7 @@
         <v>793</v>
       </c>
       <c r="E68" t="n">
-        <v>4.118452956513348e-05</v>
+        <v>4.118452956513346e-05</v>
       </c>
       <c r="F68" t="n">
         <v>0.4370588235294117</v>
@@ -1883,7 +1883,7 @@
         <v>1729</v>
       </c>
       <c r="E69" t="n">
-        <v>7.18016479807638e-05</v>
+        <v>7.180164798076379e-05</v>
       </c>
       <c r="F69" t="n">
         <v>0.4262765347102696</v>
@@ -1993,7 +1993,7 @@
         <v>722</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000108256110942769</v>
+        <v>0.0001082561109427691</v>
       </c>
       <c r="F74" t="n">
         <v>0.438736344847948</v>
@@ -2037,7 +2037,7 @@
         <v>6618</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002027686985898746</v>
+        <v>0.002027686985898747</v>
       </c>
       <c r="F76" t="n">
         <v>0.5076870515886573</v>
@@ -2191,7 +2191,7 @@
         <v>3441</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000284996639755721</v>
+        <v>0.0002849966397557211</v>
       </c>
       <c r="F83" t="n">
         <v>0.4795095191997418</v>
@@ -2279,7 +2279,7 @@
         <v>10751</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001208240987178021</v>
+        <v>0.001208240987178022</v>
       </c>
       <c r="F87" t="n">
         <v>0.5249028611797951</v>
@@ -2389,7 +2389,7 @@
         <v>3037</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0001901610458258941</v>
+        <v>0.000190161045825894</v>
       </c>
       <c r="F92" t="n">
         <v>0.4768934531450577</v>
@@ -2411,7 +2411,7 @@
         <v>9912</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000827912198005601</v>
+        <v>0.0008279121980056009</v>
       </c>
       <c r="F93" t="n">
         <v>0.5092529129540782</v>
@@ -2433,7 +2433,7 @@
         <v>2240</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0006517838133145193</v>
+        <v>0.0006517838133145195</v>
       </c>
       <c r="F94" t="n">
         <v>0.4658307210031348</v>
@@ -2455,7 +2455,7 @@
         <v>1163</v>
       </c>
       <c r="E95" t="n">
-        <v>5.87823458382221e-05</v>
+        <v>5.878234583822213e-05</v>
       </c>
       <c r="F95" t="n">
         <v>0.4520839671432917</v>
@@ -2499,7 +2499,7 @@
         <v>275</v>
       </c>
       <c r="E97" t="n">
-        <v>6.921146038366762e-07</v>
+        <v>6.921146038366761e-07</v>
       </c>
       <c r="F97" t="n">
         <v>0.4298524732426959</v>
@@ -2543,7 +2543,7 @@
         <v>19740</v>
       </c>
       <c r="E99" t="n">
-        <v>0.002504237809316799</v>
+        <v>0.002504237809316801</v>
       </c>
       <c r="F99" t="n">
         <v>0.5307142857142857</v>
@@ -2631,7 +2631,7 @@
         <v>3966</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0002582792199162629</v>
+        <v>0.000258279219916263</v>
       </c>
       <c r="F103" t="n">
         <v>0.4799741602067183</v>
@@ -2675,7 +2675,7 @@
         <v>2782</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0002769976439653418</v>
+        <v>0.0002769976439653417</v>
       </c>
       <c r="F105" t="n">
         <v>0.4655388471177945</v>
@@ -2697,7 +2697,7 @@
         <v>4743</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000588945182833759</v>
+        <v>0.0005889451828337592</v>
       </c>
       <c r="F106" t="n">
         <v>0.4948384948384948</v>
@@ -2763,7 +2763,7 @@
         <v>4392</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0005236970742851894</v>
+        <v>0.0005236970742851891</v>
       </c>
       <c r="F109" t="n">
         <v>0.4872131147540983</v>
@@ -2785,7 +2785,7 @@
         <v>5241</v>
       </c>
       <c r="E110" t="n">
-        <v>0.002670759016704079</v>
+        <v>0.00267075901670408</v>
       </c>
       <c r="F110" t="n">
         <v>0.4910773298083278</v>
@@ -2807,7 +2807,7 @@
         <v>3260</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0006395978050675806</v>
+        <v>0.0006395978050675808</v>
       </c>
       <c r="F111" t="n">
         <v>0.4776599164255866</v>
@@ -2851,7 +2851,7 @@
         <v>3377</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0002287354704314889</v>
+        <v>0.0002287354704314888</v>
       </c>
       <c r="F113" t="n">
         <v>0.4665620094191523</v>
@@ -2873,7 +2873,7 @@
         <v>9326</v>
       </c>
       <c r="E114" t="n">
-        <v>0.00122686035641285</v>
+        <v>0.001226860356412849</v>
       </c>
       <c r="F114" t="n">
         <v>0.5175896900034831</v>
@@ -3049,7 +3049,7 @@
         <v>1877</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0001256881817532537</v>
+        <v>0.0001256881817532536</v>
       </c>
       <c r="F122" t="n">
         <v>0.4693619709412508</v>
@@ -3137,7 +3137,7 @@
         <v>312</v>
       </c>
       <c r="E126" t="n">
-        <v>0.000119247870029294</v>
+        <v>0.0001192478700292941</v>
       </c>
       <c r="F126" t="n">
         <v>0.4404267931238885</v>
@@ -3203,7 +3203,7 @@
         <v>6476</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0009009742763018456</v>
+        <v>0.0009009742763018454</v>
       </c>
       <c r="F129" t="n">
         <v>0.5028764805414552</v>
@@ -3379,7 +3379,7 @@
         <v>1786</v>
       </c>
       <c r="E137" t="n">
-        <v>5.701244103490946e-05</v>
+        <v>5.701244103490948e-05</v>
       </c>
       <c r="F137" t="n">
         <v>0.4552696078431372</v>
@@ -3467,7 +3467,7 @@
         <v>10780</v>
       </c>
       <c r="E141" t="n">
-        <v>0.001547765329570913</v>
+        <v>0.001547765329570914</v>
       </c>
       <c r="F141" t="n">
         <v>0.531283518055059</v>
@@ -3533,7 +3533,7 @@
         <v>3827</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0009859433543942069</v>
+        <v>0.0009859433543942067</v>
       </c>
       <c r="F144" t="n">
         <v>0.4612042209807573</v>
@@ -3577,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="E146" t="n">
-        <v>0.006527735226064956</v>
+        <v>0.006527735226064954</v>
       </c>
       <c r="F146" t="n">
         <v>0.3095833333333334</v>
@@ -3709,7 +3709,7 @@
         <v>880</v>
       </c>
       <c r="E152" t="n">
-        <v>6.746736928913048e-06</v>
+        <v>6.746736928913047e-06</v>
       </c>
       <c r="F152" t="n">
         <v>0.4382188145089944</v>
@@ -3731,7 +3731,7 @@
         <v>40</v>
       </c>
       <c r="E153" t="n">
-        <v>0.006342396986815288</v>
+        <v>0.006342396986815286</v>
       </c>
       <c r="F153" t="n">
         <v>0.3244541484716157</v>
@@ -3753,7 +3753,7 @@
         <v>16411</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0007745650680160356</v>
+        <v>0.0007745650680160354</v>
       </c>
       <c r="F154" t="n">
         <v>0.5078605604921395</v>
@@ -3863,7 +3863,7 @@
         <v>652</v>
       </c>
       <c r="E159" t="n">
-        <v>9.759361132889768e-06</v>
+        <v>9.759361132889766e-06</v>
       </c>
       <c r="F159" t="n">
         <v>0.4353940814532669</v>
@@ -3885,7 +3885,7 @@
         <v>1663</v>
       </c>
       <c r="E160" t="n">
-        <v>0.000465435183627151</v>
+        <v>0.0004654351836271507</v>
       </c>
       <c r="F160" t="n">
         <v>0.4613474076373797</v>
@@ -3951,7 +3951,7 @@
         <v>4439</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0004074102777357926</v>
+        <v>0.0004074102777357925</v>
       </c>
       <c r="F163" t="n">
         <v>0.4815294880103694</v>
@@ -4039,7 +4039,7 @@
         <v>5582</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0006919127428998648</v>
+        <v>0.0006919127428998647</v>
       </c>
       <c r="F167" t="n">
         <v>0.4979892761394102</v>
@@ -4193,7 +4193,7 @@
         <v>7373</v>
       </c>
       <c r="E174" t="n">
-        <v>0.005267870256772416</v>
+        <v>0.005267870256772417</v>
       </c>
       <c r="F174" t="n">
         <v>0.50838179952104</v>
@@ -4237,7 +4237,7 @@
         <v>1398</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0003120592217470695</v>
+        <v>0.0003120592217470697</v>
       </c>
       <c r="F176" t="n">
         <v>0.4568090992929603</v>
@@ -4281,7 +4281,7 @@
         <v>6045</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0009686217123296336</v>
+        <v>0.0009686217123296337</v>
       </c>
       <c r="F178" t="n">
         <v>0.500505220613001</v>
@@ -4303,7 +4303,7 @@
         <v>2562</v>
       </c>
       <c r="E179" t="n">
-        <v>0.000315426716691825</v>
+        <v>0.0003154267166918249</v>
       </c>
       <c r="F179" t="n">
         <v>0.4773530356569226</v>
@@ -4435,7 +4435,7 @@
         <v>6222</v>
       </c>
       <c r="E185" t="n">
-        <v>0.002251170697823937</v>
+        <v>0.002251170697823939</v>
       </c>
       <c r="F185" t="n">
         <v>0.5027063599458729</v>
@@ -4457,7 +4457,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="n">
-        <v>5.353537821211657e-05</v>
+        <v>5.353537821211655e-05</v>
       </c>
       <c r="F186" t="n">
         <v>0.4276258992805755</v>
@@ -4479,7 +4479,7 @@
         <v>5393</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0007499927950839057</v>
+        <v>0.0007499927950839052</v>
       </c>
       <c r="F187" t="n">
         <v>0.4951682772409197</v>
@@ -4611,7 +4611,7 @@
         <v>1560</v>
       </c>
       <c r="E193" t="n">
-        <v>0.005366923096339795</v>
+        <v>0.005366923096339793</v>
       </c>
       <c r="F193" t="n">
         <v>0.47264631043257</v>
@@ -4743,7 +4743,7 @@
         <v>9</v>
       </c>
       <c r="E199" t="n">
-        <v>0.004985407480418282</v>
+        <v>0.004985407480418285</v>
       </c>
       <c r="F199" t="n">
         <v>0.3108136373143694</v>
@@ -4787,7 +4787,7 @@
         <v>328</v>
       </c>
       <c r="E201" t="n">
-        <v>0.000245225081242242</v>
+        <v>0.0002452250812422418</v>
       </c>
       <c r="F201" t="n">
         <v>0.4383480825958702</v>
@@ -4809,7 +4809,7 @@
         <v>1567</v>
       </c>
       <c r="E202" t="n">
-        <v>4.889689549244676e-05</v>
+        <v>4.889689549244675e-05</v>
       </c>
       <c r="F202" t="n">
         <v>0.4579352850539292</v>
@@ -4853,7 +4853,7 @@
         <v>1146</v>
       </c>
       <c r="E204" t="n">
-        <v>6.984587696237089e-05</v>
+        <v>6.984587696237088e-05</v>
       </c>
       <c r="F204" t="n">
         <v>0.4555487431023911</v>
@@ -4875,7 +4875,7 @@
         <v>2945</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0004735132610423587</v>
+        <v>0.0004735132610423586</v>
       </c>
       <c r="F205" t="n">
         <v>0.4867343596462496</v>
@@ -4941,7 +4941,7 @@
         <v>135</v>
       </c>
       <c r="E208" t="n">
-        <v>8.402276522329802e-07</v>
+        <v>8.402276522329801e-07</v>
       </c>
       <c r="F208" t="n">
         <v>0.4139275766016713</v>
@@ -5051,7 +5051,7 @@
         <v>1675</v>
       </c>
       <c r="E213" t="n">
-        <v>6.008982561625786e-05</v>
+        <v>6.008982561625784e-05</v>
       </c>
       <c r="F213" t="n">
         <v>0.457653218355405</v>
@@ -5073,7 +5073,7 @@
         <v>9116</v>
       </c>
       <c r="E214" t="n">
-        <v>0.001249600312672846</v>
+        <v>0.001249600312672845</v>
       </c>
       <c r="F214" t="n">
         <v>0.5049269452939178</v>
@@ -5095,7 +5095,7 @@
         <v>18</v>
       </c>
       <c r="E215" t="n">
-        <v>0.0004788023499129742</v>
+        <v>0.000478802349912974</v>
       </c>
       <c r="F215" t="n">
         <v>0.3375738300772376</v>
@@ -5117,7 +5117,7 @@
         <v>24</v>
       </c>
       <c r="E216" t="n">
-        <v>0.0002461921513037883</v>
+        <v>0.0002461921513037882</v>
       </c>
       <c r="F216" t="n">
         <v>0.2612517580872011</v>
@@ -5161,7 +5161,7 @@
         <v>273</v>
       </c>
       <c r="E218" t="n">
-        <v>4.58354726946666e-05</v>
+        <v>4.583547269466661e-05</v>
       </c>
       <c r="F218" t="n">
         <v>0.4307246376811594</v>
@@ -5183,7 +5183,7 @@
         <v>21</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0001014131343813422</v>
+        <v>0.0001014131343813421</v>
       </c>
       <c r="F219" t="n">
         <v>0.286154438667437</v>
@@ -5227,7 +5227,7 @@
         <v>4664</v>
       </c>
       <c r="E221" t="n">
-        <v>0.002130556445171103</v>
+        <v>0.002130556445171104</v>
       </c>
       <c r="F221" t="n">
         <v>0.4848287112561175</v>
@@ -5271,7 +5271,7 @@
         <v>7965</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0009624821947384798</v>
+        <v>0.0009624821947384793</v>
       </c>
       <c r="F223" t="n">
         <v>0.4966577540106952</v>
@@ -5315,7 +5315,7 @@
         <v>14</v>
       </c>
       <c r="E225" t="n">
-        <v>8.711547720683326e-06</v>
+        <v>8.711547720683328e-06</v>
       </c>
       <c r="F225" t="n">
         <v>0.3000201897839693</v>
@@ -5381,7 +5381,7 @@
         <v>1895</v>
       </c>
       <c r="E228" t="n">
-        <v>0.0001167599222530498</v>
+        <v>0.0001167599222530497</v>
       </c>
       <c r="F228" t="n">
         <v>0.47264631043257</v>
@@ -5403,7 +5403,7 @@
         <v>7044</v>
       </c>
       <c r="E229" t="n">
-        <v>0.000667635117456204</v>
+        <v>0.0006676351174562041</v>
       </c>
       <c r="F229" t="n">
         <v>0.4979892761394102</v>
@@ -5425,7 +5425,7 @@
         <v>17483</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0008099440368942687</v>
+        <v>0.0008099440368942686</v>
       </c>
       <c r="F230" t="n">
         <v>0.5163307852675469</v>
@@ -5491,7 +5491,7 @@
         <v>3292</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0003078789794392181</v>
+        <v>0.000307878979439218</v>
       </c>
       <c r="F233" t="n">
         <v>0.4829379265518363</v>
@@ -5513,7 +5513,7 @@
         <v>9123</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0009300643572128633</v>
+        <v>0.000930064357212863</v>
       </c>
       <c r="F234" t="n">
         <v>0.508034188034188</v>
@@ -5535,7 +5535,7 @@
         <v>660</v>
       </c>
       <c r="E235" t="n">
-        <v>1.484338309112209e-05</v>
+        <v>1.484338309112208e-05</v>
       </c>
       <c r="F235" t="n">
         <v>0.4431852072770653</v>
@@ -5623,7 +5623,7 @@
         <v>67</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0001456569495502483</v>
+        <v>0.0001456569495502482</v>
       </c>
       <c r="F239" t="n">
         <v>0.2918303220738414</v>
@@ -5665,7 +5665,7 @@
         <v>20453</v>
       </c>
       <c r="E241" t="n">
-        <v>0.00201180990957341</v>
+        <v>0.002011809909573409</v>
       </c>
       <c r="F241" t="n">
         <v>0.536075036075036</v>
@@ -5709,7 +5709,7 @@
         <v>11112</v>
       </c>
       <c r="E243" t="n">
-        <v>0.001865307187897271</v>
+        <v>0.001865307187897269</v>
       </c>
       <c r="F243" t="n">
         <v>0.5331898098313599</v>
@@ -5731,7 +5731,7 @@
         <v>2131</v>
       </c>
       <c r="E244" t="n">
-        <v>0.0001166057905488431</v>
+        <v>0.000116605790548843</v>
       </c>
       <c r="F244" t="n">
         <v>0.4664155681104834</v>
@@ -5753,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="E245" t="n">
-        <v>0.004994648013279622</v>
+        <v>0.004994648013279623</v>
       </c>
       <c r="F245" t="n">
         <v>0.2456198347107438</v>
@@ -5841,7 +5841,7 @@
         <v>8787</v>
       </c>
       <c r="E249" t="n">
-        <v>0.0007240424345983465</v>
+        <v>0.0007240424345983463</v>
       </c>
       <c r="F249" t="n">
         <v>0.5085557837097878</v>
@@ -5885,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="E251" t="n">
-        <v>0.002497720929188908</v>
+        <v>0.002497720929188907</v>
       </c>
       <c r="F251" t="n">
         <v>0.3567827130852341</v>
@@ -5951,7 +5951,7 @@
         <v>12817</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0009635120777185946</v>
+        <v>0.0009635120777185948</v>
       </c>
       <c r="F254" t="n">
         <v>0.5132987910189982</v>
@@ -6017,7 +6017,7 @@
         <v>1206</v>
       </c>
       <c r="E257" t="n">
-        <v>9.622269592984729e-05</v>
+        <v>9.622269592984731e-05</v>
       </c>
       <c r="F257" t="n">
         <v>0.4572307692307693</v>
@@ -6039,7 +6039,7 @@
         <v>1496</v>
       </c>
       <c r="E258" t="n">
-        <v>7.071468688317789e-05</v>
+        <v>7.07146868831779e-05</v>
       </c>
       <c r="F258" t="n">
         <v>0.4568090992929603</v>
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="E262" t="n">
-        <v>0.002806476396373463</v>
+        <v>0.002806476396373464</v>
       </c>
       <c r="F262" t="n">
         <v>0.1930622320384565</v>
@@ -6169,7 +6169,7 @@
         <v>18480</v>
       </c>
       <c r="E264" t="n">
-        <v>0.001037883435025211</v>
+        <v>0.001037883435025212</v>
       </c>
       <c r="F264" t="n">
         <v>0.5192173305380853</v>
@@ -6213,7 +6213,7 @@
         <v>6265</v>
       </c>
       <c r="E266" t="n">
-        <v>0.0004020417077294089</v>
+        <v>0.000402041707729409</v>
       </c>
       <c r="F266" t="n">
         <v>0.4872131147540983</v>
@@ -6235,7 +6235,7 @@
         <v>71</v>
       </c>
       <c r="E267" t="n">
-        <v>4.73962259825022e-05</v>
+        <v>4.739622598250223e-05</v>
       </c>
       <c r="F267" t="n">
         <v>0.3844760672703752</v>
@@ -6279,7 +6279,7 @@
         <v>5745</v>
       </c>
       <c r="E269" t="n">
-        <v>0.0009217225329132193</v>
+        <v>0.000921722532913219</v>
       </c>
       <c r="F269" t="n">
         <v>0.5008426019548365</v>
@@ -6323,7 +6323,7 @@
         <v>2472</v>
       </c>
       <c r="E271" t="n">
-        <v>0.005518656506221099</v>
+        <v>0.005518656506221098</v>
       </c>
       <c r="F271" t="n">
         <v>0.4619210444513522</v>
@@ -6345,7 +6345,7 @@
         <v>2729</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0002878218333856193</v>
+        <v>0.0002878218333856192</v>
       </c>
       <c r="F272" t="n">
         <v>0.4782748632121017</v>
@@ -6367,7 +6367,7 @@
         <v>4765</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0003866226192856037</v>
+        <v>0.0003866226192856038</v>
       </c>
       <c r="F273" t="n">
         <v>0.4860974811907099</v>
@@ -6389,7 +6389,7 @@
         <v>3118</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0002195300196628514</v>
+        <v>0.0002195300196628515</v>
       </c>
       <c r="F274" t="n">
         <v>0.4810618323081904</v>
@@ -6411,7 +6411,7 @@
         <v>12214</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0009095053770047638</v>
+        <v>0.000909505377004764</v>
       </c>
       <c r="F275" t="n">
         <v>0.5106529209621994</v>
@@ -6455,7 +6455,7 @@
         <v>17870</v>
       </c>
       <c r="E277" t="n">
-        <v>0.001591424601924339</v>
+        <v>0.00159142460192434</v>
       </c>
       <c r="F277" t="n">
         <v>0.5269503546099291</v>
@@ -6499,7 +6499,7 @@
         <v>2578</v>
       </c>
       <c r="E279" t="n">
-        <v>0.0005827660154208652</v>
+        <v>0.000582766015420865</v>
       </c>
       <c r="F279" t="n">
         <v>0.4798191798514692</v>
@@ -6565,7 +6565,7 @@
         <v>18659</v>
       </c>
       <c r="E282" t="n">
-        <v>0.002343760795529462</v>
+        <v>0.002343760795529461</v>
       </c>
       <c r="F282" t="n">
         <v>0.5305248125669404</v>
@@ -6587,7 +6587,7 @@
         <v>3083</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0004833542470743943</v>
+        <v>0.000483354247074394</v>
       </c>
       <c r="F283" t="n">
         <v>0.484354628422425</v>
@@ -6609,7 +6609,7 @@
         <v>13</v>
       </c>
       <c r="E284" t="n">
-        <v>8.214680812781707e-05</v>
+        <v>8.214680812781709e-05</v>
       </c>
       <c r="F284" t="n">
         <v>0.2982139273530002</v>
@@ -6631,7 +6631,7 @@
         <v>6454</v>
       </c>
       <c r="E285" t="n">
-        <v>0.0005180036402856757</v>
+        <v>0.0005180036402856755</v>
       </c>
       <c r="F285" t="n">
         <v>0.4971562395449983</v>
@@ -6675,7 +6675,7 @@
         <v>4232</v>
       </c>
       <c r="E287" t="n">
-        <v>0.01080199473966572</v>
+        <v>0.01080199473966571</v>
       </c>
       <c r="F287" t="n">
         <v>0.4912396694214876</v>
@@ -6697,7 +6697,7 @@
         <v>9273</v>
       </c>
       <c r="E288" t="n">
-        <v>0.0006126893701090164</v>
+        <v>0.0006126893701090165</v>
       </c>
       <c r="F288" t="n">
         <v>0.5037288135593221</v>
@@ -6719,7 +6719,7 @@
         <v>20179</v>
       </c>
       <c r="E289" t="n">
-        <v>0.001513734352484266</v>
+        <v>0.001513734352484265</v>
       </c>
       <c r="F289" t="n">
         <v>0.5337643678160919</v>
@@ -6895,7 +6895,7 @@
         <v>16680</v>
       </c>
       <c r="E297" t="n">
-        <v>0.00163256021560301</v>
+        <v>0.001632560215603009</v>
       </c>
       <c r="F297" t="n">
         <v>0.5295794725588026</v>
@@ -6983,7 +6983,7 @@
         <v>1537</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0001375420505576671</v>
+        <v>0.0001375420505576672</v>
       </c>
       <c r="F301" t="n">
         <v>0.4577942082563155</v>
@@ -7093,7 +7093,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>4.690141664037735e-07</v>
+        <v>4.690141664037736e-07</v>
       </c>
       <c r="F306" t="n">
         <v>0.3326617416610701</v>
@@ -7115,7 +7115,7 @@
         <v>8777</v>
       </c>
       <c r="E307" t="n">
-        <v>0.003118960689894684</v>
+        <v>0.003118960689894683</v>
       </c>
       <c r="F307" t="n">
         <v>0.5177700348432056</v>
@@ -7181,7 +7181,7 @@
         <v>119</v>
       </c>
       <c r="E310" t="n">
-        <v>4.891660834575596e-06</v>
+        <v>4.891660834575599e-06</v>
       </c>
       <c r="F310" t="n">
         <v>0.4098179812465527</v>
@@ -7225,7 +7225,7 @@
         <v>2614</v>
       </c>
       <c r="E312" t="n">
-        <v>0.0009261673883463337</v>
+        <v>0.0009261673883463333</v>
       </c>
       <c r="F312" t="n">
         <v>0.4743057772103415</v>
@@ -7269,7 +7269,7 @@
         <v>1096</v>
       </c>
       <c r="E314" t="n">
-        <v>2.710286120817002e-05</v>
+        <v>2.710286120817003e-05</v>
       </c>
       <c r="F314" t="n">
         <v>0.451123254401943</v>
@@ -7357,7 +7357,7 @@
         <v>3083</v>
       </c>
       <c r="E318" t="n">
-        <v>0.0002676109458298122</v>
+        <v>0.0002676109458298123</v>
       </c>
       <c r="F318" t="n">
         <v>0.4695102685624012</v>
@@ -7401,7 +7401,7 @@
         <v>1529</v>
       </c>
       <c r="E320" t="n">
-        <v>6.968436490388763e-05</v>
+        <v>6.968436490388764e-05</v>
       </c>
       <c r="F320" t="n">
         <v>0.4633613969441846</v>
@@ -7445,7 +7445,7 @@
         <v>2270</v>
       </c>
       <c r="E322" t="n">
-        <v>0.0002799819408835271</v>
+        <v>0.000279981940883527</v>
       </c>
       <c r="F322" t="n">
         <v>0.4684741488020177</v>
@@ -7467,7 +7467,7 @@
         <v>1566</v>
       </c>
       <c r="E323" t="n">
-        <v>0.0001195092888448613</v>
+        <v>0.0001195092888448614</v>
       </c>
       <c r="F323" t="n">
         <v>0.4620646766169154</v>
@@ -7489,7 +7489,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>3.911149053981118e-06</v>
+        <v>3.91114905398112e-06</v>
       </c>
       <c r="F324" t="n">
         <v>0.2761055369751022</v>
@@ -7577,7 +7577,7 @@
         <v>2458</v>
       </c>
       <c r="E328" t="n">
-        <v>0.0002908376076992713</v>
+        <v>0.0002908376076992712</v>
       </c>
       <c r="F328" t="n">
         <v>0.4678841309823678</v>
@@ -7599,7 +7599,7 @@
         <v>1364</v>
       </c>
       <c r="E329" t="n">
-        <v>2.938952158019334e-05</v>
+        <v>2.938952158019333e-05</v>
       </c>
       <c r="F329" t="n">
         <v>0.4540177207454934</v>
@@ -7621,7 +7621,7 @@
         <v>4924</v>
       </c>
       <c r="E330" t="n">
-        <v>0.0004872999357467927</v>
+        <v>0.0004872999357467925</v>
       </c>
       <c r="F330" t="n">
         <v>0.4888157894736842</v>
@@ -7643,7 +7643,7 @@
         <v>6823</v>
       </c>
       <c r="E331" t="n">
-        <v>0.0005705795269998727</v>
+        <v>0.0005705795269998724</v>
       </c>
       <c r="F331" t="n">
         <v>0.497822445561139</v>
@@ -7687,7 +7687,7 @@
         <v>5328</v>
       </c>
       <c r="E333" t="n">
-        <v>0.0009087318575491611</v>
+        <v>0.0009087318575491609</v>
       </c>
       <c r="F333" t="n">
         <v>0.4961602671118531</v>
@@ -7753,7 +7753,7 @@
         <v>9534</v>
       </c>
       <c r="E336" t="n">
-        <v>0.0009338792599670062</v>
+        <v>0.0009338792599670063</v>
       </c>
       <c r="F336" t="n">
         <v>0.5174094707520891</v>
@@ -7775,7 +7775,7 @@
         <v>3795</v>
       </c>
       <c r="E337" t="n">
-        <v>0.003074431669218215</v>
+        <v>0.003074431669218213</v>
       </c>
       <c r="F337" t="n">
         <v>0.4961602671118531</v>
@@ -7907,7 +7907,7 @@
         <v>81</v>
       </c>
       <c r="E343" t="n">
-        <v>0.000638958147297898</v>
+        <v>0.0006389581472978979</v>
       </c>
       <c r="F343" t="n">
         <v>0.4008632317237658</v>
@@ -7951,7 +7951,7 @@
         <v>1451</v>
       </c>
       <c r="E345" t="n">
-        <v>8.206040283486198e-05</v>
+        <v>8.206040283486195e-05</v>
       </c>
       <c r="F345" t="n">
         <v>0.454990814451929</v>
@@ -7973,7 +7973,7 @@
         <v>4923</v>
       </c>
       <c r="E346" t="n">
-        <v>0.0003177373754660124</v>
+        <v>0.0003177373754660125</v>
       </c>
       <c r="F346" t="n">
         <v>0.4856209150326797</v>
@@ -8039,7 +8039,7 @@
         <v>55</v>
       </c>
       <c r="E349" t="n">
-        <v>5.189906726997487e-07</v>
+        <v>5.189906726997488e-07</v>
       </c>
       <c r="F349" t="n">
         <v>0.3835828600929272</v>
@@ -8061,7 +8061,7 @@
         <v>4102</v>
       </c>
       <c r="E350" t="n">
-        <v>0.0003839420282900035</v>
+        <v>0.0003839420282900036</v>
       </c>
       <c r="F350" t="n">
         <v>0.4940159574468085</v>
@@ -8105,7 +8105,7 @@
         <v>2771</v>
       </c>
       <c r="E352" t="n">
-        <v>0.0005640050246357571</v>
+        <v>0.0005640050246357575</v>
       </c>
       <c r="F352" t="n">
         <v>0.4782748632121017</v>
@@ -8127,7 +8127,7 @@
         <v>6942</v>
       </c>
       <c r="E353" t="n">
-        <v>0.0009481832395993457</v>
+        <v>0.0009481832395993459</v>
       </c>
       <c r="F353" t="n">
         <v>0.5021966880702939</v>
@@ -8149,7 +8149,7 @@
         <v>10222</v>
       </c>
       <c r="E354" t="n">
-        <v>0.001211952314546982</v>
+        <v>0.001211952314546981</v>
       </c>
       <c r="F354" t="n">
         <v>0.518673647469459</v>
@@ -8215,7 +8215,7 @@
         <v>786</v>
       </c>
       <c r="E357" t="n">
-        <v>4.243876884491994e-06</v>
+        <v>4.243876884491993e-06</v>
       </c>
       <c r="F357" t="n">
         <v>0.4305998261373515</v>
@@ -8259,7 +8259,7 @@
         <v>6122</v>
       </c>
       <c r="E359" t="n">
-        <v>0.0007696614582475922</v>
+        <v>0.000769661458247592</v>
       </c>
       <c r="F359" t="n">
         <v>0.4907529722589168</v>
@@ -8281,7 +8281,7 @@
         <v>2445</v>
       </c>
       <c r="E360" t="n">
-        <v>0.0002511415864216714</v>
+        <v>0.0002511415864216713</v>
       </c>
       <c r="F360" t="n">
         <v>0.4687697160883281</v>
@@ -8325,7 +8325,7 @@
         <v>4508</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0007375732789780978</v>
+        <v>0.000737573278978098</v>
       </c>
       <c r="F362" t="n">
         <v>0.4899439498846027</v>
@@ -8369,7 +8369,7 @@
         <v>9531</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0008068906210506724</v>
+        <v>0.000806890621050672</v>
       </c>
       <c r="F364" t="n">
         <v>0.5113558155540261</v>
@@ -8413,7 +8413,7 @@
         <v>750</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0005862584198188734</v>
+        <v>0.0005862584198188733</v>
       </c>
       <c r="F366" t="n">
         <v>0.4509863429438543</v>
@@ -8435,7 +8435,7 @@
         <v>6469</v>
       </c>
       <c r="E367" t="n">
-        <v>0.0008485210207266492</v>
+        <v>0.000848521020726649</v>
       </c>
       <c r="F367" t="n">
         <v>0.506994199931764</v>
@@ -8477,7 +8477,7 @@
         <v>12638</v>
       </c>
       <c r="E369" t="n">
-        <v>0.001400464756353525</v>
+        <v>0.001400464756353524</v>
       </c>
       <c r="F369" t="n">
         <v>0.5225035161744023</v>
@@ -8609,7 +8609,7 @@
         <v>1732</v>
       </c>
       <c r="E375" t="n">
-        <v>0.0007305581283687065</v>
+        <v>0.0007305581283687066</v>
       </c>
       <c r="F375" t="n">
         <v>0.4695102685624012</v>
@@ -8631,7 +8631,7 @@
         <v>46</v>
       </c>
       <c r="E376" t="n">
-        <v>0.0009205790230980064</v>
+        <v>0.0009205790230980066</v>
       </c>
       <c r="F376" t="n">
         <v>0.3641264395981377</v>
@@ -8653,7 +8653,7 @@
         <v>385</v>
       </c>
       <c r="E377" t="n">
-        <v>9.041406322529815e-06</v>
+        <v>9.041406322529813e-06</v>
       </c>
       <c r="F377" t="n">
         <v>0.4092536491324704</v>
@@ -8741,7 +8741,7 @@
         <v>1879</v>
       </c>
       <c r="E381" t="n">
-        <v>0.0006228537152247137</v>
+        <v>0.0006228537152247134</v>
       </c>
       <c r="F381" t="n">
         <v>0.4689176396339539</v>
@@ -8785,7 +8785,7 @@
         <v>3958</v>
       </c>
       <c r="E383" t="n">
-        <v>0.0003687948435378805</v>
+        <v>0.0003687948435378803</v>
       </c>
       <c r="F383" t="n">
         <v>0.4931961500165948</v>
@@ -8807,7 +8807,7 @@
         <v>3169</v>
       </c>
       <c r="E384" t="n">
-        <v>0.0003143945739551413</v>
+        <v>0.0003143945739551415</v>
       </c>
       <c r="F384" t="n">
         <v>0.4709984152139461</v>
@@ -8917,7 +8917,7 @@
         <v>726</v>
       </c>
       <c r="E389" t="n">
-        <v>6.889880003519071e-05</v>
+        <v>6.889880003519073e-05</v>
       </c>
       <c r="F389" t="n">
         <v>0.4322280395578825</v>
@@ -9005,7 +9005,7 @@
         <v>4126</v>
       </c>
       <c r="E393" t="n">
-        <v>0.0007470082934833588</v>
+        <v>0.0007470082934833587</v>
       </c>
       <c r="F393" t="n">
         <v>0.4804397025541546</v>
@@ -9159,7 +9159,7 @@
         <v>7257</v>
       </c>
       <c r="E400" t="n">
-        <v>0.002083357364883059</v>
+        <v>0.00208335736488306</v>
       </c>
       <c r="F400" t="n">
         <v>0.5269503546099291</v>
@@ -9181,7 +9181,7 @@
         <v>1890</v>
       </c>
       <c r="E401" t="n">
-        <v>0.0003775221476660248</v>
+        <v>0.0003775221476660247</v>
       </c>
       <c r="F401" t="n">
         <v>0.4658307210031348</v>
@@ -9225,7 +9225,7 @@
         <v>9680</v>
       </c>
       <c r="E403" t="n">
-        <v>0.0006232083851483847</v>
+        <v>0.0006232083851483845</v>
       </c>
       <c r="F403" t="n">
         <v>0.5104774991411886</v>
@@ -9247,7 +9247,7 @@
         <v>11767</v>
       </c>
       <c r="E404" t="n">
-        <v>0.001915201888673392</v>
+        <v>0.001915201888673391</v>
       </c>
       <c r="F404" t="n">
         <v>0.5310936383130808</v>
@@ -9335,7 +9335,7 @@
         <v>264</v>
       </c>
       <c r="E408" t="n">
-        <v>0.0001488400460820448</v>
+        <v>0.0001488400460820447</v>
       </c>
       <c r="F408" t="n">
         <v>0.3755370229972201</v>
@@ -9379,7 +9379,7 @@
         <v>4375</v>
       </c>
       <c r="E410" t="n">
-        <v>0.0003149179459280287</v>
+        <v>0.0003149179459280289</v>
       </c>
       <c r="F410" t="n">
         <v>0.4812176165803109</v>
@@ -9511,7 +9511,7 @@
         <v>9362</v>
       </c>
       <c r="E416" t="n">
-        <v>0.001617840660310965</v>
+        <v>0.001617840660310966</v>
       </c>
       <c r="F416" t="n">
         <v>0.5177700348432056</v>
@@ -9643,7 +9643,7 @@
         <v>5038</v>
       </c>
       <c r="E422" t="n">
-        <v>0.000916601190462483</v>
+        <v>0.0009166011904624829</v>
       </c>
       <c r="F422" t="n">
         <v>0.4994957983193277</v>
@@ -9665,7 +9665,7 @@
         <v>351</v>
       </c>
       <c r="E423" t="n">
-        <v>2.150714003987899e-05</v>
+        <v>2.1507140039879e-05</v>
       </c>
       <c r="F423" t="n">
         <v>0.4353940814532669</v>
@@ -9819,7 +9819,7 @@
         <v>47</v>
       </c>
       <c r="E430" t="n">
-        <v>7.474489385264347e-06</v>
+        <v>7.474489385264348e-06</v>
       </c>
       <c r="F430" t="n">
         <v>0.4017301973506353</v>
@@ -9973,7 +9973,7 @@
         <v>2137</v>
       </c>
       <c r="E437" t="n">
-        <v>3.292846215353664e-05</v>
+        <v>3.292846215353665e-05</v>
       </c>
       <c r="F437" t="n">
         <v>0.4597772277227723</v>
@@ -9995,7 +9995,7 @@
         <v>11920</v>
       </c>
       <c r="E438" t="n">
-        <v>0.0007453738272421529</v>
+        <v>0.0007453738272421528</v>
       </c>
       <c r="F438" t="n">
         <v>0.5054421768707482</v>
@@ -10039,7 +10039,7 @@
         <v>4697</v>
       </c>
       <c r="E440" t="n">
-        <v>0.0007881851930426327</v>
+        <v>0.0007881851930426325</v>
       </c>
       <c r="F440" t="n">
         <v>0.4872131147540983</v>
@@ -10061,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="E441" t="n">
-        <v>0.000805183907158764</v>
+        <v>0.0008051839071587638</v>
       </c>
       <c r="F441" t="n">
         <v>0.3409821018815971</v>
@@ -10083,7 +10083,7 @@
         <v>2400</v>
       </c>
       <c r="E442" t="n">
-        <v>0.0003185713157952059</v>
+        <v>0.0003185713157952058</v>
       </c>
       <c r="F442" t="n">
         <v>0.4664155681104834</v>
@@ -10127,7 +10127,7 @@
         <v>9858</v>
       </c>
       <c r="E444" t="n">
-        <v>0.0007907756045092387</v>
+        <v>0.0007907756045092389</v>
       </c>
       <c r="F444" t="n">
         <v>0.5089041095890411</v>
@@ -10149,7 +10149,7 @@
         <v>2207</v>
       </c>
       <c r="E445" t="n">
-        <v>0.0002709542985732506</v>
+        <v>0.0002709542985732507</v>
       </c>
       <c r="F445" t="n">
         <v>0.4684741488020177</v>
@@ -10193,7 +10193,7 @@
         <v>2500</v>
       </c>
       <c r="E447" t="n">
-        <v>0.0002854330466286934</v>
+        <v>0.0002854330466286936</v>
       </c>
       <c r="F447" t="n">
         <v>0.4790457769181173</v>
@@ -10215,7 +10215,7 @@
         <v>17795</v>
       </c>
       <c r="E448" t="n">
-        <v>0.002043811772063066</v>
+        <v>0.002043811772063065</v>
       </c>
       <c r="F448" t="n">
         <v>0.5286374955531838</v>
@@ -10237,7 +10237,7 @@
         <v>3775</v>
       </c>
       <c r="E449" t="n">
-        <v>0.0004967356554405169</v>
+        <v>0.0004967356554405167</v>
       </c>
       <c r="F449" t="n">
         <v>0.4830949284785436</v>
@@ -10281,7 +10281,7 @@
         <v>19522</v>
       </c>
       <c r="E451" t="n">
-        <v>0.0009613229270807747</v>
+        <v>0.0009613229270807736</v>
       </c>
       <c r="F451" t="n">
         <v>0.5226873021456208</v>
@@ -10325,7 +10325,7 @@
         <v>5722</v>
       </c>
       <c r="E453" t="n">
-        <v>0.0008769529159297196</v>
+        <v>0.0008769529159297198</v>
       </c>
       <c r="F453" t="n">
         <v>0.4998318197107299</v>
@@ -10391,7 +10391,7 @@
         <v>734</v>
       </c>
       <c r="E456" t="n">
-        <v>2.387692818863102e-05</v>
+        <v>2.387692818863101e-05</v>
       </c>
       <c r="F456" t="n">
         <v>0.4509863429438543</v>
@@ -10413,7 +10413,7 @@
         <v>483</v>
       </c>
       <c r="E457" t="n">
-        <v>0.0001839386100403108</v>
+        <v>0.0001839386100403109</v>
       </c>
       <c r="F457" t="n">
         <v>0.4368018812463257</v>
@@ -10501,7 +10501,7 @@
         <v>7039</v>
       </c>
       <c r="E461" t="n">
-        <v>0.0006463253493085542</v>
+        <v>0.000646325349308554</v>
       </c>
       <c r="F461" t="n">
         <v>0.5089041095890411</v>
@@ -10611,7 +10611,7 @@
         <v>4516</v>
       </c>
       <c r="E466" t="n">
-        <v>0.0004851529713625534</v>
+        <v>0.0004851529713625535</v>
       </c>
       <c r="F466" t="n">
         <v>0.4823109380071405</v>
@@ -10655,7 +10655,7 @@
         <v>7605</v>
       </c>
       <c r="E468" t="n">
-        <v>0.0007291676823926658</v>
+        <v>0.0007291676823926659</v>
       </c>
       <c r="F468" t="n">
         <v>0.5045840407470289</v>
@@ -10677,7 +10677,7 @@
         <v>4479</v>
       </c>
       <c r="E469" t="n">
-        <v>0.000642605206823959</v>
+        <v>0.0006426052068239591</v>
       </c>
       <c r="F469" t="n">
         <v>0.4923790589794566</v>
@@ -10721,7 +10721,7 @@
         <v>5482</v>
       </c>
       <c r="E471" t="n">
-        <v>0.0009930769558803964</v>
+        <v>0.0009930769558803962</v>
       </c>
       <c r="F471" t="n">
         <v>0.4922159655515072</v>
@@ -10765,7 +10765,7 @@
         <v>770</v>
       </c>
       <c r="E473" t="n">
-        <v>5.299485972999779e-05</v>
+        <v>5.29948597299978e-05</v>
       </c>
       <c r="F473" t="n">
         <v>0.4447770128703981</v>
@@ -10787,7 +10787,7 @@
         <v>2286</v>
       </c>
       <c r="E474" t="n">
-        <v>0.0002972119034259494</v>
+        <v>0.0002972119034259495</v>
       </c>
       <c r="F474" t="n">
         <v>0.4668551680804273</v>
@@ -10809,7 +10809,7 @@
         <v>1100</v>
       </c>
       <c r="E475" t="n">
-        <v>0.0002589035349457234</v>
+        <v>0.0002589035349457233</v>
       </c>
       <c r="F475" t="n">
         <v>0.4524969549330085</v>
@@ -10831,7 +10831,7 @@
         <v>14958</v>
       </c>
       <c r="E476" t="n">
-        <v>0.0007107260715586018</v>
+        <v>0.000710726071558602</v>
       </c>
       <c r="F476" t="n">
         <v>0.512944425267518</v>
@@ -10875,7 +10875,7 @@
         <v>7803</v>
       </c>
       <c r="E478" t="n">
-        <v>0.001647707451431995</v>
+        <v>0.001647707451431994</v>
       </c>
       <c r="F478" t="n">
         <v>0.507340389211335</v>
@@ -10897,7 +10897,7 @@
         <v>1292</v>
       </c>
       <c r="E479" t="n">
-        <v>0.0001324554729482038</v>
+        <v>0.0001324554729482039</v>
       </c>
       <c r="F479" t="n">
         <v>0.4658307210031348</v>
@@ -10941,7 +10941,7 @@
         <v>2172</v>
       </c>
       <c r="E481" t="n">
-        <v>9.522589128919131e-05</v>
+        <v>9.522589128919133e-05</v>
       </c>
       <c r="F481" t="n">
         <v>0.469955724225174</v>
@@ -11029,7 +11029,7 @@
         <v>1976</v>
       </c>
       <c r="E485" t="n">
-        <v>6.708805361009463e-05</v>
+        <v>6.70880536100946e-05</v>
       </c>
       <c r="F485" t="n">
         <v>0.4649561952440551</v>
@@ -11073,7 +11073,7 @@
         <v>1177</v>
       </c>
       <c r="E487" t="n">
-        <v>0.0002002696165204408</v>
+        <v>0.0002002696165204409</v>
       </c>
       <c r="F487" t="n">
         <v>0.454434250764526</v>
@@ -11117,7 +11117,7 @@
         <v>4065</v>
       </c>
       <c r="E489" t="n">
-        <v>0.0009319114144649405</v>
+        <v>0.0009319114144649409</v>
       </c>
       <c r="F489" t="n">
         <v>0.4773530356569226</v>
@@ -11161,7 +11161,7 @@
         <v>1002</v>
       </c>
       <c r="E491" t="n">
-        <v>0.0001848590506178554</v>
+        <v>0.0001848590506178553</v>
       </c>
       <c r="F491" t="n">
         <v>0.4507127691841068</v>
@@ -11183,7 +11183,7 @@
         <v>2804</v>
       </c>
       <c r="E492" t="n">
-        <v>0.0005405247250439626</v>
+        <v>0.0005405247250439625</v>
       </c>
       <c r="F492" t="n">
         <v>0.4790457769181173</v>
@@ -11205,7 +11205,7 @@
         <v>10931</v>
       </c>
       <c r="E493" t="n">
-        <v>0.002068694034935989</v>
+        <v>0.002068694034935988</v>
       </c>
       <c r="F493" t="n">
         <v>0.5241622574955909</v>
@@ -11227,7 +11227,7 @@
         <v>11756</v>
       </c>
       <c r="E494" t="n">
-        <v>0.007162504568032507</v>
+        <v>0.007162504568032501</v>
       </c>
       <c r="F494" t="n">
         <v>0.5127674258109041</v>
@@ -11249,7 +11249,7 @@
         <v>2747</v>
       </c>
       <c r="E495" t="n">
-        <v>0.0003768541061729183</v>
+        <v>0.0003768541061729184</v>
       </c>
       <c r="F495" t="n">
         <v>0.4753678822776711</v>
@@ -11271,7 +11271,7 @@
         <v>4702</v>
       </c>
       <c r="E496" t="n">
-        <v>0.001093064185408312</v>
+        <v>0.001093064185408313</v>
       </c>
       <c r="F496" t="n">
         <v>0.4827810266406757</v>
@@ -11337,7 +11337,7 @@
         <v>1175</v>
       </c>
       <c r="E499" t="n">
-        <v>9.402294911088842e-05</v>
+        <v>9.402294911088844e-05</v>
       </c>
       <c r="F499" t="n">
         <v>0.4552696078431372</v>
@@ -11381,7 +11381,7 @@
         <v>85</v>
       </c>
       <c r="E501" t="n">
-        <v>6.654459969246638e-07</v>
+        <v>6.654459969246639e-07</v>
       </c>
       <c r="F501" t="n">
         <v>0.3919810076496967</v>
@@ -11535,7 +11535,7 @@
         <v>17595</v>
       </c>
       <c r="E508" t="n">
-        <v>0.001429422405096077</v>
+        <v>0.001429422405096076</v>
       </c>
       <c r="F508" t="n">
         <v>0.5247175141242938</v>
@@ -11733,7 +11733,7 @@
         <v>2204</v>
       </c>
       <c r="E517" t="n">
-        <v>0.0005026849151423777</v>
+        <v>0.000502684915142378</v>
       </c>
       <c r="F517" t="n">
         <v>0.4609181141439206</v>
@@ -11755,7 +11755,7 @@
         <v>5841</v>
       </c>
       <c r="E518" t="n">
-        <v>0.0006602148419806144</v>
+        <v>0.0006602148419806142</v>
       </c>
       <c r="F518" t="n">
         <v>0.4971562395449983</v>
@@ -11799,7 +11799,7 @@
         <v>3603</v>
       </c>
       <c r="E520" t="n">
-        <v>0.001793569681995266</v>
+        <v>0.001793569681995267</v>
       </c>
       <c r="F520" t="n">
         <v>0.4798191798514692</v>
@@ -11821,7 +11821,7 @@
         <v>4799</v>
       </c>
       <c r="E521" t="n">
-        <v>0.0008891554032675147</v>
+        <v>0.0008891554032675143</v>
       </c>
       <c r="F521" t="n">
         <v>0.4961602671118531</v>
@@ -11997,7 +11997,7 @@
         <v>865</v>
       </c>
       <c r="E529" t="n">
-        <v>6.200005187460181e-05</v>
+        <v>6.200005187460183e-05</v>
       </c>
       <c r="F529" t="n">
         <v>0.4519464720194648</v>
@@ -12041,7 +12041,7 @@
         <v>2911</v>
       </c>
       <c r="E531" t="n">
-        <v>0.00115840269691573</v>
+        <v>0.001158402696915731</v>
       </c>
       <c r="F531" t="n">
         <v>0.4792002579812963</v>
@@ -12063,7 +12063,7 @@
         <v>5104</v>
       </c>
       <c r="E532" t="n">
-        <v>0.0005137601100793242</v>
+        <v>0.0005137601100793238</v>
       </c>
       <c r="F532" t="n">
         <v>0.4856209150326797</v>
@@ -12085,7 +12085,7 @@
         <v>3663</v>
       </c>
       <c r="E533" t="n">
-        <v>0.000423181534721013</v>
+        <v>0.0004231815347210129</v>
       </c>
       <c r="F533" t="n">
         <v>0.4799741602067183</v>
@@ -12107,7 +12107,7 @@
         <v>7328</v>
       </c>
       <c r="E534" t="n">
-        <v>0.000942231614499762</v>
+        <v>0.0009422316144997616</v>
       </c>
       <c r="F534" t="n">
         <v>0.5020270270270271</v>
@@ -12217,7 +12217,7 @@
         <v>307</v>
       </c>
       <c r="E539" t="n">
-        <v>0.0005324008282869737</v>
+        <v>0.0005324008282869736</v>
       </c>
       <c r="F539" t="n">
         <v>0.419536984754376</v>
@@ -12239,7 +12239,7 @@
         <v>1080</v>
       </c>
       <c r="E540" t="n">
-        <v>0.0003203166303125102</v>
+        <v>0.0003203166303125101</v>
       </c>
       <c r="F540" t="n">
         <v>0.4501666161769161</v>
@@ -12283,7 +12283,7 @@
         <v>1161</v>
       </c>
       <c r="E542" t="n">
-        <v>0.0006588537089736824</v>
+        <v>0.0006588537089736822</v>
       </c>
       <c r="F542" t="n">
         <v>0.4633613969441846</v>
@@ -12349,7 +12349,7 @@
         <v>1532</v>
       </c>
       <c r="E545" t="n">
-        <v>0.0001822907548631824</v>
+        <v>0.0001822907548631825</v>
       </c>
       <c r="F545" t="n">
         <v>0.4637952559300874</v>
@@ -12393,7 +12393,7 @@
         <v>9979</v>
       </c>
       <c r="E547" t="n">
-        <v>0.00063427011686257</v>
+        <v>0.0006342701168625699</v>
       </c>
       <c r="F547" t="n">
         <v>0.5054421768707482</v>
@@ -12415,7 +12415,7 @@
         <v>2405</v>
       </c>
       <c r="E548" t="n">
-        <v>0.0002598898136717475</v>
+        <v>0.0002598898136717474</v>
       </c>
       <c r="F548" t="n">
         <v>0.4704020259575815</v>
@@ -12437,7 +12437,7 @@
         <v>14376</v>
       </c>
       <c r="E549" t="n">
-        <v>0.001130837583317063</v>
+        <v>0.001130837583317062</v>
       </c>
       <c r="F549" t="n">
         <v>0.5267635590216235</v>
@@ -12481,7 +12481,7 @@
         <v>10141</v>
       </c>
       <c r="E551" t="n">
-        <v>0.0007400216898808845</v>
+        <v>0.0007400216898808842</v>
       </c>
       <c r="F551" t="n">
         <v>0.5064758009543285</v>
@@ -12503,7 +12503,7 @@
         <v>1881</v>
       </c>
       <c r="E552" t="n">
-        <v>8.841088392526115e-05</v>
+        <v>8.841088392526119e-05</v>
       </c>
       <c r="F552" t="n">
         <v>0.4680314960629921</v>
@@ -12547,7 +12547,7 @@
         <v>6873</v>
       </c>
       <c r="E554" t="n">
-        <v>0.000509914021496489</v>
+        <v>0.0005099140214964891</v>
       </c>
       <c r="F554" t="n">
         <v>0.5018574805808849</v>
@@ -12569,7 +12569,7 @@
         <v>11518</v>
       </c>
       <c r="E555" t="n">
-        <v>0.001972068507655007</v>
+        <v>0.001972068507655006</v>
       </c>
       <c r="F555" t="n">
         <v>0.5177700348432056</v>
@@ -12613,7 +12613,7 @@
         <v>5326</v>
       </c>
       <c r="E557" t="n">
-        <v>0.001121563696125542</v>
+        <v>0.001121563696125541</v>
       </c>
       <c r="F557" t="n">
         <v>0.5018574805808849</v>
@@ -12635,7 +12635,7 @@
         <v>892</v>
       </c>
       <c r="E558" t="n">
-        <v>5.712749153602375e-05</v>
+        <v>5.712749153602378e-05</v>
       </c>
       <c r="F558" t="n">
         <v>0.4501666161769161</v>
@@ -12701,7 +12701,7 @@
         <v>814</v>
       </c>
       <c r="E561" t="n">
-        <v>1.664433278527806e-05</v>
+        <v>1.664433278527807e-05</v>
       </c>
       <c r="F561" t="n">
         <v>0.4422619047619048</v>
@@ -12789,7 +12789,7 @@
         <v>337</v>
       </c>
       <c r="E565" t="n">
-        <v>1.021861946896927e-06</v>
+        <v>1.021861946896926e-06</v>
       </c>
       <c r="F565" t="n">
         <v>0.4293556775498411</v>
@@ -12855,7 +12855,7 @@
         <v>4645</v>
       </c>
       <c r="E568" t="n">
-        <v>0.002798423375303724</v>
+        <v>0.002798423375303723</v>
       </c>
       <c r="F568" t="n">
         <v>0.492542260523699</v>
@@ -12877,7 +12877,7 @@
         <v>4255</v>
       </c>
       <c r="E569" t="n">
-        <v>0.0002390646326648267</v>
+        <v>0.0002390646326648266</v>
       </c>
       <c r="F569" t="n">
         <v>0.4698071451153968</v>
@@ -12899,7 +12899,7 @@
         <v>2773</v>
       </c>
       <c r="E570" t="n">
-        <v>0.0002333801103957681</v>
+        <v>0.000233380110395768</v>
       </c>
       <c r="F570" t="n">
         <v>0.4705509816339455</v>
@@ -12921,7 +12921,7 @@
         <v>259</v>
       </c>
       <c r="E571" t="n">
-        <v>4.139848960017727e-05</v>
+        <v>4.139848960017726e-05</v>
       </c>
       <c r="F571" t="n">
         <v>0.3511342155009452</v>
@@ -12965,7 +12965,7 @@
         <v>114</v>
       </c>
       <c r="E573" t="n">
-        <v>5.169630485048029e-05</v>
+        <v>5.16963048504803e-05</v>
       </c>
       <c r="F573" t="n">
         <v>0.3947927736450584</v>
@@ -13031,7 +13031,7 @@
         <v>10333</v>
       </c>
       <c r="E576" t="n">
-        <v>0.0009962037838972058</v>
+        <v>0.0009962037838972065</v>
       </c>
       <c r="F576" t="n">
         <v>0.5143648321218415</v>
@@ -13053,7 +13053,7 @@
         <v>4154</v>
       </c>
       <c r="E577" t="n">
-        <v>0.0005025359999177422</v>
+        <v>0.0005025359999177424</v>
       </c>
       <c r="F577" t="n">
         <v>0.4872131147540983</v>
@@ -13185,7 +13185,7 @@
         <v>6603</v>
       </c>
       <c r="E583" t="n">
-        <v>0.0008819546997931065</v>
+        <v>0.0008819546997931066</v>
       </c>
       <c r="F583" t="n">
         <v>0.5045840407470289</v>
@@ -13229,7 +13229,7 @@
         <v>974</v>
       </c>
       <c r="E585" t="n">
-        <v>7.43109285450307e-05</v>
+        <v>7.431092854503067e-05</v>
       </c>
       <c r="F585" t="n">
         <v>0.4418673803151947</v>
@@ -13317,7 +13317,7 @@
         <v>128</v>
       </c>
       <c r="E589" t="n">
-        <v>0.004216242372277448</v>
+        <v>0.004216242372277449</v>
       </c>
       <c r="F589" t="n">
         <v>0.3964781216648879</v>
@@ -13339,7 +13339,7 @@
         <v>351</v>
       </c>
       <c r="E590" t="n">
-        <v>6.117097446307875e-06</v>
+        <v>6.117097446307873e-06</v>
       </c>
       <c r="F590" t="n">
         <v>0.4110650069156293</v>
@@ -13449,7 +13449,7 @@
         <v>739</v>
       </c>
       <c r="E595" t="n">
-        <v>7.956545069158823e-06</v>
+        <v>7.956545069158826e-06</v>
       </c>
       <c r="F595" t="n">
         <v>0.4393849793021881</v>
@@ -13471,7 +13471,7 @@
         <v>1281</v>
       </c>
       <c r="E596" t="n">
-        <v>0.0002273544402363462</v>
+        <v>0.000227354440236346</v>
       </c>
       <c r="F596" t="n">
         <v>0.4545732639951056</v>
@@ -13515,7 +13515,7 @@
         <v>4455</v>
       </c>
       <c r="E598" t="n">
-        <v>0.0007722755042436581</v>
+        <v>0.0007722755042436583</v>
       </c>
       <c r="F598" t="n">
         <v>0.485938521909745</v>
@@ -13713,7 +13713,7 @@
         <v>18370</v>
       </c>
       <c r="E607" t="n">
-        <v>0.002167466431959594</v>
+        <v>0.002167466431959596</v>
       </c>
       <c r="F607" t="n">
         <v>0.5389916575988393</v>
@@ -13801,7 +13801,7 @@
         <v>783</v>
       </c>
       <c r="E611" t="n">
-        <v>6.003347362055997e-05</v>
+        <v>6.003347362055994e-05</v>
       </c>
       <c r="F611" t="n">
         <v>0.4501666161769161</v>
@@ -13867,7 +13867,7 @@
         <v>5233</v>
       </c>
       <c r="E614" t="n">
-        <v>0.006599312268553052</v>
+        <v>0.006599312268553053</v>
       </c>
       <c r="F614" t="n">
         <v>0.5059584610146407</v>
@@ -13911,7 +13911,7 @@
         <v>7217</v>
       </c>
       <c r="E616" t="n">
-        <v>0.0008290189475347815</v>
+        <v>0.0008290189475347816</v>
       </c>
       <c r="F616" t="n">
         <v>0.5025363544132566</v>
@@ -13955,7 +13955,7 @@
         <v>1599</v>
       </c>
       <c r="E618" t="n">
-        <v>0.0004694888222965644</v>
+        <v>0.0004694888222965642</v>
       </c>
       <c r="F618" t="n">
         <v>0.4348844015218027</v>
@@ -13977,7 +13977,7 @@
         <v>1659</v>
       </c>
       <c r="E619" t="n">
-        <v>7.749341026490617e-05</v>
+        <v>7.749341026490615e-05</v>
       </c>
       <c r="F619" t="n">
         <v>0.4599195295574126</v>
@@ -14021,7 +14021,7 @@
         <v>1763</v>
       </c>
       <c r="E621" t="n">
-        <v>5.074517892453887e-05</v>
+        <v>5.074517892453885e-05</v>
       </c>
       <c r="F621" t="n">
         <v>0.4345029239766082</v>
@@ -14109,7 +14109,7 @@
         <v>367</v>
       </c>
       <c r="E625" t="n">
-        <v>0.0001185541628692967</v>
+        <v>0.0001185541628692966</v>
       </c>
       <c r="F625" t="n">
         <v>0.4336154070615699</v>
@@ -14131,7 +14131,7 @@
         <v>7753</v>
       </c>
       <c r="E626" t="n">
-        <v>0.002784559706209189</v>
+        <v>0.002784559706209188</v>
       </c>
       <c r="F626" t="n">
         <v>0.4959946595460614</v>
@@ -14153,7 +14153,7 @@
         <v>6626</v>
       </c>
       <c r="E627" t="n">
-        <v>0.002432901033912597</v>
+        <v>0.002432901033912596</v>
       </c>
       <c r="F627" t="n">
         <v>0.495663775850567</v>
@@ -14197,7 +14197,7 @@
         <v>821</v>
       </c>
       <c r="E629" t="n">
-        <v>0.0001787427562531412</v>
+        <v>0.0001787427562531411</v>
       </c>
       <c r="F629" t="n">
         <v>0.4447770128703981</v>
@@ -14219,7 +14219,7 @@
         <v>8177</v>
       </c>
       <c r="E630" t="n">
-        <v>0.0006898533871053594</v>
+        <v>0.0006898533871053593</v>
       </c>
       <c r="F630" t="n">
         <v>0.5015187310158623</v>
@@ -14241,7 +14241,7 @@
         <v>3859</v>
       </c>
       <c r="E631" t="n">
-        <v>0.0001925207684602832</v>
+        <v>0.0001925207684602833</v>
       </c>
       <c r="F631" t="n">
         <v>0.4784288473921443</v>
@@ -14329,7 +14329,7 @@
         <v>9121</v>
       </c>
       <c r="E635" t="n">
-        <v>0.0008032502333239029</v>
+        <v>0.0008032502333239027</v>
       </c>
       <c r="F635" t="n">
         <v>0.4983232729711603</v>
@@ -14483,7 +14483,7 @@
         <v>9620</v>
       </c>
       <c r="E642" t="n">
-        <v>0.001178026238963865</v>
+        <v>0.001178026238963866</v>
       </c>
       <c r="F642" t="n">
         <v>0.5042416016287751</v>
@@ -14549,7 +14549,7 @@
         <v>397</v>
       </c>
       <c r="E645" t="n">
-        <v>0.0001729215079674677</v>
+        <v>0.0001729215079674676</v>
       </c>
       <c r="F645" t="n">
         <v>0.4399052693901717</v>
@@ -14571,7 +14571,7 @@
         <v>9302</v>
       </c>
       <c r="E646" t="n">
-        <v>0.000638087465116327</v>
+        <v>0.0006380874651163271</v>
       </c>
       <c r="F646" t="n">
         <v>0.495663775850567</v>
@@ -14615,7 +14615,7 @@
         <v>7496</v>
       </c>
       <c r="E648" t="n">
-        <v>0.0005865120343814685</v>
+        <v>0.0005865120343814683</v>
       </c>
       <c r="F648" t="n">
         <v>0.505786249149081</v>
@@ -14659,7 +14659,7 @@
         <v>3199</v>
       </c>
       <c r="E650" t="n">
-        <v>0.0005954623211115755</v>
+        <v>0.0005954623211115756</v>
       </c>
       <c r="F650" t="n">
         <v>0.4661229611041405</v>
@@ -14703,7 +14703,7 @@
         <v>3310</v>
       </c>
       <c r="E652" t="n">
-        <v>0.000973287315430149</v>
+        <v>0.0009732873154301488</v>
       </c>
       <c r="F652" t="n">
         <v>0.4744572158365262</v>
@@ -14725,7 +14725,7 @@
         <v>5671</v>
       </c>
       <c r="E653" t="n">
-        <v>0.002494796946158702</v>
+        <v>0.002494796946158701</v>
       </c>
       <c r="F653" t="n">
         <v>0.5013495276653172</v>
@@ -14747,7 +14747,7 @@
         <v>2003</v>
       </c>
       <c r="E654" t="n">
-        <v>8.449894615619985e-05</v>
+        <v>8.449894615619982e-05</v>
       </c>
       <c r="F654" t="n">
         <v>0.462640099626401</v>
@@ -14791,7 +14791,7 @@
         <v>3607</v>
       </c>
       <c r="E656" t="n">
-        <v>0.0009623422056888729</v>
+        <v>0.0009623422056888724</v>
       </c>
       <c r="F656" t="n">
         <v>0.4749121124960051</v>
@@ -14813,7 +14813,7 @@
         <v>133</v>
       </c>
       <c r="E657" t="n">
-        <v>7.977417988593406e-06</v>
+        <v>7.977417988593407e-06</v>
       </c>
       <c r="F657" t="n">
         <v>0.4182381086405854</v>
@@ -14857,7 +14857,7 @@
         <v>9485</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0008356329019513405</v>
+        <v>0.0008356329019513402</v>
       </c>
       <c r="F659" t="n">
         <v>0.5132987910189982</v>
@@ -14923,7 +14923,7 @@
         <v>4777</v>
       </c>
       <c r="E662" t="n">
-        <v>0.001024256506524028</v>
+        <v>0.001024256506524029</v>
       </c>
       <c r="F662" t="n">
         <v>0.4917273328921244</v>
@@ -14945,7 +14945,7 @@
         <v>6187</v>
       </c>
       <c r="E663" t="n">
-        <v>0.0007172768676568467</v>
+        <v>0.0007172768676568466</v>
       </c>
       <c r="F663" t="n">
         <v>0.4958291624958292</v>
@@ -14967,7 +14967,7 @@
         <v>6548</v>
       </c>
       <c r="E664" t="n">
-        <v>0.0009433477836038762</v>
+        <v>0.0009433477836038764</v>
       </c>
       <c r="F664" t="n">
         <v>0.5018574805808849</v>
@@ -15011,7 +15011,7 @@
         <v>434</v>
       </c>
       <c r="E666" t="n">
-        <v>0.0005125298855338821</v>
+        <v>0.000512529885533882</v>
       </c>
       <c r="F666" t="n">
         <v>0.4110650069156293</v>
@@ -15033,7 +15033,7 @@
         <v>10526</v>
       </c>
       <c r="E667" t="n">
-        <v>0.001261851230881056</v>
+        <v>0.001261851230881055</v>
       </c>
       <c r="F667" t="n">
         <v>0.5210378681626928</v>
@@ -15121,7 +15121,7 @@
         <v>12802</v>
       </c>
       <c r="E671" t="n">
-        <v>0.00128464679651514</v>
+        <v>0.001284646796515139</v>
       </c>
       <c r="F671" t="n">
         <v>0.5145429362880887</v>
@@ -15143,7 +15143,7 @@
         <v>14</v>
       </c>
       <c r="E672" t="n">
-        <v>0.0001324765867125324</v>
+        <v>0.0001324765867125323</v>
       </c>
       <c r="F672" t="n">
         <v>0.3704811767638993</v>
@@ -15165,7 +15165,7 @@
         <v>2293</v>
       </c>
       <c r="E673" t="n">
-        <v>0.0003987290737280631</v>
+        <v>0.000398729073728063</v>
       </c>
       <c r="F673" t="n">
         <v>0.4526347852573865</v>
@@ -15187,7 +15187,7 @@
         <v>11377</v>
       </c>
       <c r="E674" t="n">
-        <v>0.001281785297821852</v>
+        <v>0.001281785297821851</v>
       </c>
       <c r="F674" t="n">
         <v>0.5247175141242938</v>
@@ -15229,7 +15229,7 @@
         <v>5875</v>
       </c>
       <c r="E676" t="n">
-        <v>0.005310874967890666</v>
+        <v>0.005310874967890671</v>
       </c>
       <c r="F676" t="n">
         <v>0.485938521909745</v>
@@ -15251,7 +15251,7 @@
         <v>4913</v>
       </c>
       <c r="E677" t="n">
-        <v>0.0007062423311934383</v>
+        <v>0.0007062423311934382</v>
       </c>
       <c r="F677" t="n">
         <v>0.4959946595460614</v>
@@ -15273,7 +15273,7 @@
         <v>3007</v>
       </c>
       <c r="E678" t="n">
-        <v>0.0003605699305352181</v>
+        <v>0.000360569930535218</v>
       </c>
       <c r="F678" t="n">
         <v>0.4779671920231586</v>
@@ -15361,7 +15361,7 @@
         <v>6121</v>
       </c>
       <c r="E682" t="n">
-        <v>0.0008566294864991109</v>
+        <v>0.0008566294864991107</v>
       </c>
       <c r="F682" t="n">
         <v>0.480284421460892</v>
@@ -15405,7 +15405,7 @@
         <v>10342</v>
       </c>
       <c r="E684" t="n">
-        <v>0.0009909085087067063</v>
+        <v>0.0009909085087067061</v>
       </c>
       <c r="F684" t="n">
         <v>0.5214035087719298</v>
@@ -15537,7 +15537,7 @@
         <v>3892</v>
       </c>
       <c r="E690" t="n">
-        <v>0.0005423912181681596</v>
+        <v>0.0005423912181681595</v>
       </c>
       <c r="F690" t="n">
         <v>0.485938521909745</v>
@@ -15603,7 +15603,7 @@
         <v>4586</v>
       </c>
       <c r="E693" t="n">
-        <v>0.0006293671572174166</v>
+        <v>0.0006293671572174167</v>
       </c>
       <c r="F693" t="n">
         <v>0.4785829307568438</v>
@@ -15647,7 +15647,7 @@
         <v>2505</v>
       </c>
       <c r="E695" t="n">
-        <v>0.0002538336048470791</v>
+        <v>0.000253833604847079</v>
       </c>
       <c r="F695" t="n">
         <v>0.470253164556962</v>
@@ -15669,7 +15669,7 @@
         <v>82</v>
       </c>
       <c r="E696" t="n">
-        <v>5.410539756180859e-05</v>
+        <v>5.410539756180861e-05</v>
       </c>
       <c r="F696" t="n">
         <v>0.4098179812465527</v>
@@ -15713,7 +15713,7 @@
         <v>6472</v>
       </c>
       <c r="E698" t="n">
-        <v>0.002191723142446118</v>
+        <v>0.002191723142446119</v>
       </c>
       <c r="F698" t="n">
         <v>0.4963259853039412</v>
@@ -15735,7 +15735,7 @@
         <v>4222</v>
       </c>
       <c r="E699" t="n">
-        <v>0.0005197606347732651</v>
+        <v>0.0005197606347732647</v>
       </c>
       <c r="F699" t="n">
         <v>0.4753678822776711</v>
@@ -15801,7 +15801,7 @@
         <v>92</v>
       </c>
       <c r="E702" t="n">
-        <v>6.276520905287276e-07</v>
+        <v>6.276520905287274e-07</v>
       </c>
       <c r="F702" t="n">
         <v>0.4209631728045325</v>
@@ -15823,7 +15823,7 @@
         <v>5215</v>
       </c>
       <c r="E703" t="n">
-        <v>0.0006202577525402267</v>
+        <v>0.0006202577525402265</v>
       </c>
       <c r="F703" t="n">
         <v>0.4848287112561175</v>
@@ -15845,7 +15845,7 @@
         <v>8444</v>
       </c>
       <c r="E704" t="n">
-        <v>0.001318078302133497</v>
+        <v>0.001318078302133498</v>
       </c>
       <c r="F704" t="n">
         <v>0.4918901026150281</v>
@@ -15889,7 +15889,7 @@
         <v>836</v>
       </c>
       <c r="E706" t="n">
-        <v>0.0001643176926252405</v>
+        <v>0.0001643176926252406</v>
       </c>
       <c r="F706" t="n">
         <v>0.4520839671432917</v>
@@ -15955,7 +15955,7 @@
         <v>427</v>
       </c>
       <c r="E709" t="n">
-        <v>2.90977598792923e-05</v>
+        <v>2.909775987929229e-05</v>
       </c>
       <c r="F709" t="n">
         <v>0.4434497165025366</v>
@@ -15977,7 +15977,7 @@
         <v>7806</v>
       </c>
       <c r="E710" t="n">
-        <v>0.0008171138807551637</v>
+        <v>0.0008171138807551636</v>
       </c>
       <c r="F710" t="n">
         <v>0.5027063599458729</v>
@@ -15999,7 +15999,7 @@
         <v>10375</v>
       </c>
       <c r="E711" t="n">
-        <v>0.0009276161132603569</v>
+        <v>0.0009276161132603565</v>
       </c>
       <c r="F711" t="n">
         <v>0.5265768958185684</v>
@@ -16021,7 +16021,7 @@
         <v>14588</v>
       </c>
       <c r="E712" t="n">
-        <v>0.0009831653599344137</v>
+        <v>0.0009831653599344141</v>
       </c>
       <c r="F712" t="n">
         <v>0.5208552400981423</v>
@@ -16043,7 +16043,7 @@
         <v>3411</v>
       </c>
       <c r="E713" t="n">
-        <v>0.000456602979906849</v>
+        <v>0.0004566029799068493</v>
       </c>
       <c r="F713" t="n">
         <v>0.4705509816339455</v>
@@ -16153,7 +16153,7 @@
         <v>6304</v>
       </c>
       <c r="E718" t="n">
-        <v>0.0006594647131606648</v>
+        <v>0.0006594647131606651</v>
       </c>
       <c r="F718" t="n">
         <v>0.4961602671118531</v>
@@ -16197,7 +16197,7 @@
         <v>753</v>
       </c>
       <c r="E720" t="n">
-        <v>7.449616353273481e-05</v>
+        <v>7.449616353273483e-05</v>
       </c>
       <c r="F720" t="n">
         <v>0.448130277442702</v>
@@ -16219,7 +16219,7 @@
         <v>112</v>
       </c>
       <c r="E721" t="n">
-        <v>0.008593164494311425</v>
+        <v>0.008593164494311424</v>
       </c>
       <c r="F721" t="n">
         <v>0.3613813229571984</v>
@@ -16285,7 +16285,7 @@
         <v>523</v>
       </c>
       <c r="E724" t="n">
-        <v>4.021745011291307e-05</v>
+        <v>4.021745011291308e-05</v>
       </c>
       <c r="F724" t="n">
         <v>0.4422619047619048</v>
@@ -16329,7 +16329,7 @@
         <v>175</v>
       </c>
       <c r="E726" t="n">
-        <v>5.994118759952062e-05</v>
+        <v>5.994118759952064e-05</v>
       </c>
       <c r="F726" t="n">
         <v>0.421321236178055</v>
@@ -16351,7 +16351,7 @@
         <v>1007</v>
       </c>
       <c r="E727" t="n">
-        <v>0.001536201368944157</v>
+        <v>0.001536201368944156</v>
       </c>
       <c r="F727" t="n">
         <v>0.4401658767772512</v>
@@ -16395,7 +16395,7 @@
         <v>764</v>
       </c>
       <c r="E729" t="n">
-        <v>6.117646369935074e-05</v>
+        <v>6.117646369935073e-05</v>
       </c>
       <c r="F729" t="n">
         <v>0.456949569495695</v>
@@ -16417,7 +16417,7 @@
         <v>3599</v>
       </c>
       <c r="E730" t="n">
-        <v>0.0007866762203773188</v>
+        <v>0.0007866762203773186</v>
       </c>
       <c r="F730" t="n">
         <v>0.484354628422425</v>
@@ -16461,7 +16461,7 @@
         <v>2949</v>
       </c>
       <c r="E732" t="n">
-        <v>0.0008637810847392302</v>
+        <v>0.0008637810847392305</v>
       </c>
       <c r="F732" t="n">
         <v>0.4753678822776711</v>
@@ -16505,7 +16505,7 @@
         <v>80</v>
       </c>
       <c r="E734" t="n">
-        <v>6.469202731017466e-06</v>
+        <v>6.469202731017465e-06</v>
       </c>
       <c r="F734" t="n">
         <v>0.4011879049676026</v>
@@ -16615,7 +16615,7 @@
         <v>1305</v>
       </c>
       <c r="E739" t="n">
-        <v>0.003046867882650317</v>
+        <v>0.003046867882650316</v>
       </c>
       <c r="F739" t="n">
         <v>0.4568090992929603</v>
@@ -16703,7 +16703,7 @@
         <v>10215</v>
       </c>
       <c r="E743" t="n">
-        <v>0.0005071967174683547</v>
+        <v>0.0005071967174683548</v>
       </c>
       <c r="F743" t="n">
         <v>0.497489119517911</v>
@@ -16747,7 +16747,7 @@
         <v>5533</v>
       </c>
       <c r="E745" t="n">
-        <v>0.0004274944741234924</v>
+        <v>0.0004274944741234923</v>
       </c>
       <c r="F745" t="n">
         <v>0.4801292407108239</v>
@@ -16769,7 +16769,7 @@
         <v>5663</v>
       </c>
       <c r="E746" t="n">
-        <v>0.01718038188562395</v>
+        <v>0.01718038188562394</v>
       </c>
       <c r="F746" t="n">
         <v>0.4971562395449983</v>
@@ -16813,7 +16813,7 @@
         <v>308</v>
       </c>
       <c r="E748" t="n">
-        <v>2.931811302799314e-05</v>
+        <v>2.931811302799312e-05</v>
       </c>
       <c r="F748" t="n">
         <v>0.4289838337182448</v>
@@ -16835,7 +16835,7 @@
         <v>10078</v>
       </c>
       <c r="E749" t="n">
-        <v>0.000932427695398728</v>
+        <v>0.0009324276953987279</v>
       </c>
       <c r="F749" t="n">
         <v>0.507340389211335</v>
@@ -16857,7 +16857,7 @@
         <v>8225</v>
       </c>
       <c r="E750" t="n">
-        <v>0.0006863698133528378</v>
+        <v>0.0006863698133528377</v>
       </c>
       <c r="F750" t="n">
         <v>0.4954984994998333</v>
@@ -16989,7 +16989,7 @@
         <v>1132</v>
       </c>
       <c r="E756" t="n">
-        <v>7.667679084709714e-05</v>
+        <v>7.667679084709716e-05</v>
       </c>
       <c r="F756" t="n">
         <v>0.4380896226415094</v>
@@ -17033,7 +17033,7 @@
         <v>5070</v>
       </c>
       <c r="E758" t="n">
-        <v>0.0007299206704330011</v>
+        <v>0.000729920670433001</v>
       </c>
       <c r="F758" t="n">
         <v>0.4912396694214876</v>
@@ -17077,7 +17077,7 @@
         <v>48</v>
       </c>
       <c r="E760" t="n">
-        <v>5.609702960561095e-07</v>
+        <v>5.609702960561094e-07</v>
       </c>
       <c r="F760" t="n">
         <v>0.3787917410145297</v>
@@ -17099,7 +17099,7 @@
         <v>7</v>
       </c>
       <c r="E761" t="n">
-        <v>0.004098451806734271</v>
+        <v>0.004098451806734269</v>
       </c>
       <c r="F761" t="n">
         <v>0.2386381885338044</v>
@@ -17121,7 +17121,7 @@
         <v>4457</v>
       </c>
       <c r="E762" t="n">
-        <v>0.001239363359742624</v>
+        <v>0.001239363359742625</v>
       </c>
       <c r="F762" t="n">
         <v>0.4838814718332791</v>
@@ -17187,7 +17187,7 @@
         <v>609</v>
       </c>
       <c r="E765" t="n">
-        <v>0.001135676476347608</v>
+        <v>0.001135676476347609</v>
       </c>
       <c r="F765" t="n">
         <v>0.4450434261755017</v>
@@ -17231,7 +17231,7 @@
         <v>7159</v>
       </c>
       <c r="E767" t="n">
-        <v>0.001228947458519562</v>
+        <v>0.001228947458519563</v>
       </c>
       <c r="F767" t="n">
         <v>0.4838814718332791</v>
@@ -17253,7 +17253,7 @@
         <v>1204</v>
       </c>
       <c r="E768" t="n">
-        <v>0.0003942323881120467</v>
+        <v>0.0003942323881120466</v>
       </c>
       <c r="F768" t="n">
         <v>0.4547123623011016</v>
@@ -17275,7 +17275,7 @@
         <v>8826</v>
       </c>
       <c r="E769" t="n">
-        <v>0.001355549253178582</v>
+        <v>0.001355549253178581</v>
       </c>
       <c r="F769" t="n">
         <v>0.5192173305380853</v>
@@ -17341,7 +17341,7 @@
         <v>10897</v>
       </c>
       <c r="E772" t="n">
-        <v>0.001102416171677328</v>
+        <v>0.001102416171677327</v>
       </c>
       <c r="F772" t="n">
         <v>0.510828463389481</v>
@@ -17407,7 +17407,7 @@
         <v>5323</v>
       </c>
       <c r="E775" t="n">
-        <v>0.001982139892754113</v>
+        <v>0.001982139892754111</v>
       </c>
       <c r="F775" t="n">
         <v>0.493687707641196</v>
@@ -17451,7 +17451,7 @@
         <v>5502</v>
       </c>
       <c r="E777" t="n">
-        <v>0.001727267513239366</v>
+        <v>0.001727267513239367</v>
       </c>
       <c r="F777" t="n">
         <v>0.4918901026150281</v>
@@ -17473,7 +17473,7 @@
         <v>4443</v>
       </c>
       <c r="E778" t="n">
-        <v>0.0031086983966392</v>
+        <v>0.003108698396639198</v>
       </c>
       <c r="F778" t="n">
         <v>0.4883338810384489</v>
@@ -17495,7 +17495,7 @@
         <v>15</v>
       </c>
       <c r="E779" t="n">
-        <v>0.0004225602396476452</v>
+        <v>0.0004225602396476453</v>
       </c>
       <c r="F779" t="n">
         <v>0.3118572927597062</v>
@@ -17583,7 +17583,7 @@
         <v>4</v>
       </c>
       <c r="E783" t="n">
-        <v>5.052651459991993e-06</v>
+        <v>5.052651459991992e-06</v>
       </c>
       <c r="F783" t="n">
         <v>0.2420195439739414</v>
@@ -17627,7 +17627,7 @@
         <v>913</v>
       </c>
       <c r="E785" t="n">
-        <v>5.91537532982201e-05</v>
+        <v>5.915375329822007e-05</v>
       </c>
       <c r="F785" t="n">
         <v>0.4242078218669712</v>
@@ -17649,7 +17649,7 @@
         <v>470</v>
       </c>
       <c r="E786" t="n">
-        <v>2.86227722411e-05</v>
+        <v>2.862277224110001e-05</v>
       </c>
       <c r="F786" t="n">
         <v>0.4350117096018735</v>
@@ -17781,7 +17781,7 @@
         <v>1892</v>
       </c>
       <c r="E792" t="n">
-        <v>0.0002852070024832531</v>
+        <v>0.0002852070024832532</v>
       </c>
       <c r="F792" t="n">
         <v>0.4610611231771641</v>
@@ -17957,7 +17957,7 @@
         <v>9859</v>
       </c>
       <c r="E800" t="n">
-        <v>0.001197140991136328</v>
+        <v>0.001197140991136327</v>
       </c>
       <c r="F800" t="n">
         <v>0.5141868512110727</v>
@@ -17979,7 +17979,7 @@
         <v>6311</v>
       </c>
       <c r="E801" t="n">
-        <v>0.0008330749633129329</v>
+        <v>0.0008330749633129331</v>
       </c>
       <c r="F801" t="n">
         <v>0.5075136612021858</v>
@@ -18023,7 +18023,7 @@
         <v>64</v>
       </c>
       <c r="E803" t="n">
-        <v>0.01162609320100138</v>
+        <v>0.01162609320100137</v>
       </c>
       <c r="F803" t="n">
         <v>0.3732730469731223</v>
@@ -18045,7 +18045,7 @@
         <v>3294</v>
       </c>
       <c r="E804" t="n">
-        <v>0.0005629981509610585</v>
+        <v>0.0005629981509610588</v>
       </c>
       <c r="F804" t="n">
         <v>0.4771997430956968</v>
@@ -18067,7 +18067,7 @@
         <v>10978</v>
       </c>
       <c r="E805" t="n">
-        <v>0.0008397281514113939</v>
+        <v>0.000839728151411394</v>
       </c>
       <c r="F805" t="n">
         <v>0.512944425267518</v>
@@ -18089,7 +18089,7 @@
         <v>3985</v>
       </c>
       <c r="E806" t="n">
-        <v>0.0005230455389908461</v>
+        <v>0.000523045538990846</v>
       </c>
       <c r="F806" t="n">
         <v>0.4838814718332791</v>
@@ -18155,7 +18155,7 @@
         <v>403</v>
       </c>
       <c r="E809" t="n">
-        <v>7.814017828250018e-05</v>
+        <v>7.814017828250019e-05</v>
       </c>
       <c r="F809" t="n">
         <v>0.4350117096018735</v>
@@ -18177,7 +18177,7 @@
         <v>11815</v>
       </c>
       <c r="E810" t="n">
-        <v>0.001012512315517472</v>
+        <v>0.001012512315517471</v>
       </c>
       <c r="F810" t="n">
         <v>0.5148995148995149</v>
@@ -18221,7 +18221,7 @@
         <v>11209</v>
       </c>
       <c r="E812" t="n">
-        <v>0.0008082574635401934</v>
+        <v>0.0008082574635401937</v>
       </c>
       <c r="F812" t="n">
         <v>0.5157931273863242</v>
@@ -18287,7 +18287,7 @@
         <v>15</v>
       </c>
       <c r="E815" t="n">
-        <v>2.708793489846488e-05</v>
+        <v>2.708793489846487e-05</v>
       </c>
       <c r="F815" t="n">
         <v>0.3171148100725565</v>
@@ -18309,7 +18309,7 @@
         <v>9861</v>
       </c>
       <c r="E816" t="n">
-        <v>0.002063869976358523</v>
+        <v>0.002063869976358522</v>
       </c>
       <c r="F816" t="n">
         <v>0.5223198594024605</v>
@@ -18331,7 +18331,7 @@
         <v>388</v>
       </c>
       <c r="E817" t="n">
-        <v>6.145073840214404e-07</v>
+        <v>6.145073840214403e-07</v>
       </c>
       <c r="F817" t="n">
         <v>0.4248141795311606</v>
@@ -18353,7 +18353,7 @@
         <v>4217</v>
       </c>
       <c r="E818" t="n">
-        <v>0.0009739394593508202</v>
+        <v>0.0009739394593508198</v>
       </c>
       <c r="F818" t="n">
         <v>0.4721957419764856</v>
@@ -18375,7 +18375,7 @@
         <v>3968</v>
       </c>
       <c r="E819" t="n">
-        <v>0.0003677859923769496</v>
+        <v>0.0003677859923769494</v>
       </c>
       <c r="F819" t="n">
         <v>0.4753678822776711</v>
@@ -18441,7 +18441,7 @@
         <v>4447</v>
       </c>
       <c r="E822" t="n">
-        <v>0.0006478159216701207</v>
+        <v>0.0006478159216701209</v>
       </c>
       <c r="F822" t="n">
         <v>0.4837239583333333</v>
@@ -18507,7 +18507,7 @@
         <v>1565</v>
       </c>
       <c r="E825" t="n">
-        <v>0.0003207898330775903</v>
+        <v>0.0003207898330775902</v>
       </c>
       <c r="F825" t="n">
         <v>0.4620646766169154</v>
@@ -18661,7 +18661,7 @@
         <v>7905</v>
       </c>
       <c r="E832" t="n">
-        <v>0.0005358813823908551</v>
+        <v>0.0005358813823908549</v>
       </c>
       <c r="F832" t="n">
         <v>0.5025363544132566</v>
@@ -18705,7 +18705,7 @@
         <v>489</v>
       </c>
       <c r="E834" t="n">
-        <v>9.771429335180267e-05</v>
+        <v>9.771429335180265e-05</v>
       </c>
       <c r="F834" t="n">
         <v>0.4467829224293446</v>
@@ -18969,7 +18969,7 @@
         <v>9181</v>
       </c>
       <c r="E846" t="n">
-        <v>0.002423316386823784</v>
+        <v>0.002423316386823785</v>
       </c>
       <c r="F846" t="n">
         <v>0.5165102537365311</v>
@@ -19057,7 +19057,7 @@
         <v>347</v>
       </c>
       <c r="E850" t="n">
-        <v>3.973313720186945e-06</v>
+        <v>3.973313720186944e-06</v>
       </c>
       <c r="F850" t="n">
         <v>0.4405573673287874</v>
@@ -19101,7 +19101,7 @@
         <v>403</v>
       </c>
       <c r="E852" t="n">
-        <v>3.252258612035039e-06</v>
+        <v>3.252258612035038e-06</v>
       </c>
       <c r="F852" t="n">
         <v>0.4470517448856799</v>
@@ -19211,7 +19211,7 @@
         <v>6375</v>
       </c>
       <c r="E857" t="n">
-        <v>0.0009529746449088958</v>
+        <v>0.0009529746449088955</v>
       </c>
       <c r="F857" t="n">
         <v>0.5015187310158623</v>
@@ -19297,7 +19297,7 @@
         <v>1466</v>
       </c>
       <c r="E861" t="n">
-        <v>6.561817469641514e-05</v>
+        <v>6.561817469641512e-05</v>
       </c>
       <c r="F861" t="n">
         <v>0.4555487431023911</v>
@@ -19429,7 +19429,7 @@
         <v>7570</v>
       </c>
       <c r="E867" t="n">
-        <v>0.0009047738238225278</v>
+        <v>0.0009047738238225274</v>
       </c>
       <c r="F867" t="n">
         <v>0.5090784515244947</v>
@@ -19473,7 +19473,7 @@
         <v>3293</v>
       </c>
       <c r="E869" t="n">
-        <v>0.0006936474550251236</v>
+        <v>0.0006936474550251237</v>
       </c>
       <c r="F869" t="n">
         <v>0.4746087511977004</v>
@@ -19561,7 +19561,7 @@
         <v>176</v>
       </c>
       <c r="E873" t="n">
-        <v>7.509199425792553e-06</v>
+        <v>7.509199425792552e-06</v>
       </c>
       <c r="F873" t="n">
         <v>0.4115203544724453</v>
@@ -19649,7 +19649,7 @@
         <v>875</v>
       </c>
       <c r="E877" t="n">
-        <v>5.112428508027588e-05</v>
+        <v>5.112428508027589e-05</v>
       </c>
       <c r="F877" t="n">
         <v>0.4555487431023911</v>
@@ -19715,7 +19715,7 @@
         <v>5152</v>
       </c>
       <c r="E880" t="n">
-        <v>0.0004913741840744303</v>
+        <v>0.0004913741840744304</v>
       </c>
       <c r="F880" t="n">
         <v>0.4849869451697128</v>
@@ -19737,7 +19737,7 @@
         <v>9252</v>
       </c>
       <c r="E881" t="n">
-        <v>0.004766935835738956</v>
+        <v>0.004766935835738955</v>
       </c>
       <c r="F881" t="n">
         <v>0.5148995148995149</v>
@@ -19781,7 +19781,7 @@
         <v>8036</v>
       </c>
       <c r="E883" t="n">
-        <v>0.002166186161900211</v>
+        <v>0.00216618616190021</v>
       </c>
       <c r="F883" t="n">
         <v>0.5150779896013865</v>
@@ -19803,7 +19803,7 @@
         <v>15</v>
       </c>
       <c r="E884" t="n">
-        <v>2.708793489846488e-05</v>
+        <v>2.708793489846487e-05</v>
       </c>
       <c r="F884" t="n">
         <v>0.3171148100725565</v>
@@ -19869,7 +19869,7 @@
         <v>4187</v>
       </c>
       <c r="E887" t="n">
-        <v>0.0009171887247347188</v>
+        <v>0.0009171887247347195</v>
       </c>
       <c r="F887" t="n">
         <v>0.4856209150326797</v>
@@ -19891,7 +19891,7 @@
         <v>108</v>
       </c>
       <c r="E888" t="n">
-        <v>2.130547608954625e-06</v>
+        <v>2.130547608954626e-06</v>
       </c>
       <c r="F888" t="n">
         <v>0.4131220461495691</v>
@@ -19913,7 +19913,7 @@
         <v>4187</v>
       </c>
       <c r="E889" t="n">
-        <v>0.0005059634601052179</v>
+        <v>0.000505963460105218</v>
       </c>
       <c r="F889" t="n">
         <v>0.4740031897926635</v>
@@ -20001,7 +20001,7 @@
         <v>309</v>
       </c>
       <c r="E893" t="n">
-        <v>4.136233965977445e-06</v>
+        <v>4.136233965977444e-06</v>
       </c>
       <c r="F893" t="n">
         <v>0.4360328638497653</v>
@@ -20045,7 +20045,7 @@
         <v>13147</v>
       </c>
       <c r="E895" t="n">
-        <v>0.0009382940201025973</v>
+        <v>0.0009382940201025975</v>
       </c>
       <c r="F895" t="n">
         <v>0.5247175141242938</v>
@@ -20089,7 +20089,7 @@
         <v>10510</v>
       </c>
       <c r="E897" t="n">
-        <v>0.001983983856309912</v>
+        <v>0.001983983856309911</v>
       </c>
       <c r="F897" t="n">
         <v>0.512944425267518</v>
@@ -20133,7 +20133,7 @@
         <v>8097</v>
       </c>
       <c r="E899" t="n">
-        <v>0.0008117074235316329</v>
+        <v>0.000811707423531633</v>
       </c>
       <c r="F899" t="n">
         <v>0.497489119517911</v>
@@ -20221,7 +20221,7 @@
         <v>946</v>
       </c>
       <c r="E903" t="n">
-        <v>1.849140569205555e-05</v>
+        <v>1.849140569205554e-05</v>
       </c>
       <c r="F903" t="n">
         <v>0.462640099626401</v>
@@ -20243,7 +20243,7 @@
         <v>921</v>
       </c>
       <c r="E904" t="n">
-        <v>5.35419141078389e-05</v>
+        <v>5.354191410783889e-05</v>
       </c>
       <c r="F904" t="n">
         <v>0.4526347852573865</v>
@@ -20309,7 +20309,7 @@
         <v>19236</v>
       </c>
       <c r="E907" t="n">
-        <v>0.001080779805125427</v>
+        <v>0.001080779805125426</v>
       </c>
       <c r="F907" t="n">
         <v>0.5265768958185684</v>
@@ -20353,7 +20353,7 @@
         <v>46</v>
       </c>
       <c r="E909" t="n">
-        <v>0.006274282546530816</v>
+        <v>0.006274282546530814</v>
       </c>
       <c r="F909" t="n">
         <v>0.3723377599599098</v>
@@ -20375,7 +20375,7 @@
         <v>230</v>
       </c>
       <c r="E910" t="n">
-        <v>6.351530120873903e-06</v>
+        <v>6.351530120873904e-06</v>
       </c>
       <c r="F910" t="n">
         <v>0.4250572082379863</v>
@@ -20463,7 +20463,7 @@
         <v>6681</v>
       </c>
       <c r="E914" t="n">
-        <v>0.003492267666665413</v>
+        <v>0.003492267666665412</v>
       </c>
       <c r="F914" t="n">
         <v>0.5090784515244947</v>
@@ -20485,7 +20485,7 @@
         <v>2766</v>
       </c>
       <c r="E915" t="n">
-        <v>0.0002632095996266602</v>
+        <v>0.0002632095996266601</v>
       </c>
       <c r="F915" t="n">
         <v>0.4489425981873112</v>
@@ -20507,7 +20507,7 @@
         <v>3994</v>
       </c>
       <c r="E916" t="n">
-        <v>0.0008535124115028466</v>
+        <v>0.0008535124115028471</v>
       </c>
       <c r="F916" t="n">
         <v>0.4902672385351369</v>
@@ -20529,7 +20529,7 @@
         <v>3647</v>
       </c>
       <c r="E917" t="n">
-        <v>0.0004215810317190892</v>
+        <v>0.0004215810317190893</v>
       </c>
       <c r="F917" t="n">
         <v>0.475215861848417</v>
@@ -20551,7 +20551,7 @@
         <v>1050</v>
       </c>
       <c r="E918" t="n">
-        <v>3.190236535199927e-05</v>
+        <v>3.190236535199926e-05</v>
       </c>
       <c r="F918" t="n">
         <v>0.4579352850539292</v>
@@ -20637,7 +20637,7 @@
         <v>6434</v>
       </c>
       <c r="E922" t="n">
-        <v>0.0008382938916685472</v>
+        <v>0.0008382938916685467</v>
       </c>
       <c r="F922" t="n">
         <v>0.4897824653922215</v>
@@ -20681,7 +20681,7 @@
         <v>7734</v>
       </c>
       <c r="E924" t="n">
-        <v>0.002598809222541215</v>
+        <v>0.002598809222541216</v>
       </c>
       <c r="F924" t="n">
         <v>0.5049269452939178</v>
@@ -20703,7 +20703,7 @@
         <v>5213</v>
       </c>
       <c r="E925" t="n">
-        <v>0.0009553110541133624</v>
+        <v>0.0009553110541133616</v>
       </c>
       <c r="F925" t="n">
         <v>0.4865749836280288</v>
@@ -20725,7 +20725,7 @@
         <v>2271</v>
       </c>
       <c r="E926" t="n">
-        <v>0.000250659749666257</v>
+        <v>0.0002506597496662569</v>
       </c>
       <c r="F926" t="n">
         <v>0.4630726082891867</v>
@@ -20769,7 +20769,7 @@
         <v>11523</v>
       </c>
       <c r="E928" t="n">
-        <v>0.0005562975600397462</v>
+        <v>0.0005562975600397461</v>
       </c>
       <c r="F928" t="n">
         <v>0.5044127630685675</v>
@@ -20791,7 +20791,7 @@
         <v>19</v>
       </c>
       <c r="E929" t="n">
-        <v>4.235240766491646e-05</v>
+        <v>4.235240766491644e-05</v>
       </c>
       <c r="F929" t="n">
         <v>0.3040098199672668</v>
@@ -20835,7 +20835,7 @@
         <v>4890</v>
       </c>
       <c r="E931" t="n">
-        <v>0.003193277747209124</v>
+        <v>0.003193277747209123</v>
       </c>
       <c r="F931" t="n">
         <v>0.4864157119476269</v>
@@ -20857,7 +20857,7 @@
         <v>3425</v>
       </c>
       <c r="E932" t="n">
-        <v>0.0007093202700103337</v>
+        <v>0.0007093202700103341</v>
       </c>
       <c r="F932" t="n">
         <v>0.4870534251065224</v>
@@ -20879,7 +20879,7 @@
         <v>44</v>
       </c>
       <c r="E933" t="n">
-        <v>0.001104971428965467</v>
+        <v>0.001104971428965466</v>
       </c>
       <c r="F933" t="n">
         <v>0.3472774012619771</v>
@@ -20945,7 +20945,7 @@
         <v>5248</v>
       </c>
       <c r="E936" t="n">
-        <v>0.0007070649649448564</v>
+        <v>0.0007070649649448565</v>
       </c>
       <c r="F936" t="n">
         <v>0.493687707641196</v>
@@ -20967,7 +20967,7 @@
         <v>5454</v>
       </c>
       <c r="E937" t="n">
-        <v>0.0006516149368898484</v>
+        <v>0.0006516149368898485</v>
       </c>
       <c r="F937" t="n">
         <v>0.4897824653922215</v>
@@ -20989,7 +20989,7 @@
         <v>2096</v>
       </c>
       <c r="E938" t="n">
-        <v>0.0004754638418147814</v>
+        <v>0.0004754638418147818</v>
       </c>
       <c r="F938" t="n">
         <v>0.4566687154271665</v>
@@ -21033,7 +21033,7 @@
         <v>339</v>
       </c>
       <c r="E940" t="n">
-        <v>0.0003387476498995377</v>
+        <v>0.0003387476498995375</v>
       </c>
       <c r="F940" t="n">
         <v>0.4417360285374554</v>
@@ -21077,7 +21077,7 @@
         <v>7283</v>
       </c>
       <c r="E942" t="n">
-        <v>0.001085831713414387</v>
+        <v>0.001085831713414388</v>
       </c>
       <c r="F942" t="n">
         <v>0.4951682772409197</v>
@@ -21099,7 +21099,7 @@
         <v>13650</v>
       </c>
       <c r="E943" t="n">
-        <v>0.0009153335559024685</v>
+        <v>0.0009153335559024683</v>
       </c>
       <c r="F943" t="n">
         <v>0.5134761575673807</v>
@@ -21209,7 +21209,7 @@
         <v>1427</v>
       </c>
       <c r="E948" t="n">
-        <v>9.489147241229889e-05</v>
+        <v>9.489147241229888e-05</v>
       </c>
       <c r="F948" t="n">
         <v>0.4562480810561867</v>
@@ -21253,7 +21253,7 @@
         <v>11501</v>
       </c>
       <c r="E950" t="n">
-        <v>0.000697831507594543</v>
+        <v>0.0006978315075945429</v>
       </c>
       <c r="F950" t="n">
         <v>0.5059584610146407</v>
@@ -21275,7 +21275,7 @@
         <v>1917</v>
       </c>
       <c r="E951" t="n">
-        <v>0.0001861144170430405</v>
+        <v>0.0001861144170430406</v>
       </c>
       <c r="F951" t="n">
         <v>0.4724960254372019</v>
@@ -21319,7 +21319,7 @@
         <v>51</v>
       </c>
       <c r="E953" t="n">
-        <v>1.722630912980394e-07</v>
+        <v>1.722630912980395e-07</v>
       </c>
       <c r="F953" t="n">
         <v>0.3613813229571984</v>
@@ -21363,7 +21363,7 @@
         <v>1054</v>
       </c>
       <c r="E955" t="n">
-        <v>0.0002954421308092613</v>
+        <v>0.0002954421308092614</v>
       </c>
       <c r="F955" t="n">
         <v>0.462352209085252</v>
@@ -21429,7 +21429,7 @@
         <v>4291</v>
       </c>
       <c r="E958" t="n">
-        <v>0.0004468528881912002</v>
+        <v>0.0004468528881912001</v>
       </c>
       <c r="F958" t="n">
         <v>0.4779671920231586</v>
@@ -21473,7 +21473,7 @@
         <v>2086</v>
       </c>
       <c r="E960" t="n">
-        <v>0.0005684849228117404</v>
+        <v>0.0005684849228117403</v>
       </c>
       <c r="F960" t="n">
         <v>0.4698071451153968</v>
@@ -21539,7 +21539,7 @@
         <v>83</v>
       </c>
       <c r="E963" t="n">
-        <v>3.034315357527336e-05</v>
+        <v>3.034315357527338e-05</v>
       </c>
       <c r="F963" t="n">
         <v>0.4140429088882697</v>
@@ -21693,7 +21693,7 @@
         <v>5061</v>
       </c>
       <c r="E970" t="n">
-        <v>0.004405754852652999</v>
+        <v>0.004405754852652998</v>
       </c>
       <c r="F970" t="n">
         <v>0.5018574805808849</v>
@@ -21737,7 +21737,7 @@
         <v>2983</v>
       </c>
       <c r="E972" t="n">
-        <v>0.0007889114786927728</v>
+        <v>0.0007889114786927729</v>
       </c>
       <c r="F972" t="n">
         <v>0.4785829307568438</v>
@@ -21781,7 +21781,7 @@
         <v>14830</v>
       </c>
       <c r="E974" t="n">
-        <v>0.001220156246151351</v>
+        <v>0.001220156246151352</v>
       </c>
       <c r="F974" t="n">
         <v>0.5297682709447415</v>
@@ -21803,7 +21803,7 @@
         <v>8645</v>
       </c>
       <c r="E975" t="n">
-        <v>0.001345196582557175</v>
+        <v>0.001345196582557174</v>
       </c>
       <c r="F975" t="n">
         <v>0.5064758009543285</v>
@@ -21825,7 +21825,7 @@
         <v>5520</v>
       </c>
       <c r="E976" t="n">
-        <v>0.000564517948881517</v>
+        <v>0.0005645179488815173</v>
       </c>
       <c r="F976" t="n">
         <v>0.4989926124916051</v>
@@ -21847,7 +21847,7 @@
         <v>1077</v>
       </c>
       <c r="E977" t="n">
-        <v>2.446374138653595e-05</v>
+        <v>2.446374138653594e-05</v>
       </c>
       <c r="F977" t="n">
         <v>0.456949569495695</v>
@@ -21869,7 +21869,7 @@
         <v>9577</v>
       </c>
       <c r="E978" t="n">
-        <v>0.001544957194113939</v>
+        <v>0.00154495719411394</v>
       </c>
       <c r="F978" t="n">
         <v>0.5228712174524982</v>
@@ -21891,7 +21891,7 @@
         <v>1057</v>
       </c>
       <c r="E979" t="n">
-        <v>4.334072976180668e-05</v>
+        <v>4.334072976180667e-05</v>
       </c>
       <c r="F979" t="n">
         <v>0.4512602490130581</v>
@@ -21935,7 +21935,7 @@
         <v>7369</v>
       </c>
       <c r="E981" t="n">
-        <v>0.001039090500843605</v>
+        <v>0.001039090500843604</v>
       </c>
       <c r="F981" t="n">
         <v>0.5111799105607155</v>
@@ -22001,7 +22001,7 @@
         <v>64</v>
       </c>
       <c r="E984" t="n">
-        <v>3.602906514644462e-07</v>
+        <v>3.602906514644463e-07</v>
       </c>
       <c r="F984" t="n">
         <v>0.3281802120141343</v>
@@ -22045,7 +22045,7 @@
         <v>8771</v>
       </c>
       <c r="E986" t="n">
-        <v>0.0009736670309768928</v>
+        <v>0.000973667030976893</v>
       </c>
       <c r="F986" t="n">
         <v>0.5027063599458729</v>
@@ -22111,7 +22111,7 @@
         <v>109</v>
       </c>
       <c r="E989" t="n">
-        <v>6.588899092757947e-06</v>
+        <v>6.588899092757948e-06</v>
       </c>
       <c r="F989" t="n">
         <v>0.4167134043746495</v>
@@ -22155,7 +22155,7 @@
         <v>15526</v>
       </c>
       <c r="E991" t="n">
-        <v>0.001459854617851933</v>
+        <v>0.001459854617851934</v>
       </c>
       <c r="F991" t="n">
         <v>0.5278863232682061</v>
@@ -22199,7 +22199,7 @@
         <v>44</v>
       </c>
       <c r="E993" t="n">
-        <v>0.001104971428965467</v>
+        <v>0.001104971428965466</v>
       </c>
       <c r="F993" t="n">
         <v>0.3472774012619771</v>
@@ -22243,7 +22243,7 @@
         <v>45</v>
       </c>
       <c r="E995" t="n">
-        <v>1.245113303353771e-05</v>
+        <v>1.24511330335377e-05</v>
       </c>
       <c r="F995" t="n">
         <v>0.4010796221322537</v>
@@ -22265,7 +22265,7 @@
         <v>12841</v>
       </c>
       <c r="E996" t="n">
-        <v>0.0006776931754749152</v>
+        <v>0.0006776931754749151</v>
       </c>
       <c r="F996" t="n">
         <v>0.506994199931764</v>
@@ -22287,7 +22287,7 @@
         <v>9527</v>
       </c>
       <c r="E997" t="n">
-        <v>0.0008272224559833871</v>
+        <v>0.0008272224559833873</v>
       </c>
       <c r="F997" t="n">
         <v>0.5127674258109041</v>
@@ -22309,7 +22309,7 @@
         <v>10256</v>
       </c>
       <c r="E998" t="n">
-        <v>0.00541771075210715</v>
+        <v>0.005417710752107153</v>
       </c>
       <c r="F998" t="n">
         <v>0.5068212824010914</v>
@@ -22353,7 +22353,7 @@
         <v>7097</v>
       </c>
       <c r="E1000" t="n">
-        <v>0.0005506436890557303</v>
+        <v>0.0005506436890557305</v>
       </c>
       <c r="F1000" t="n">
         <v>0.5</v>
@@ -22529,7 +22529,7 @@
         <v>4790</v>
       </c>
       <c r="E1008" t="n">
-        <v>0.0008684103572449875</v>
+        <v>0.0008684103572449876</v>
       </c>
       <c r="F1008" t="n">
         <v>0.4872131147540983</v>
@@ -22551,7 +22551,7 @@
         <v>3728</v>
       </c>
       <c r="E1009" t="n">
-        <v>0.0005114447915400305</v>
+        <v>0.0005114447915400304</v>
       </c>
       <c r="F1009" t="n">
         <v>0.4793548387096774</v>
@@ -22617,7 +22617,7 @@
         <v>9146</v>
       </c>
       <c r="E1012" t="n">
-        <v>0.001316376807968583</v>
+        <v>0.001316376807968584</v>
       </c>
       <c r="F1012" t="n">
         <v>0.5085557837097878</v>
@@ -22639,7 +22639,7 @@
         <v>10935</v>
       </c>
       <c r="E1013" t="n">
-        <v>0.0004788558182472195</v>
+        <v>0.0004788558182472197</v>
       </c>
       <c r="F1013" t="n">
         <v>0.5049269452939178</v>
@@ -22727,7 +22727,7 @@
         <v>4962</v>
       </c>
       <c r="E1017" t="n">
-        <v>0.0008677417953105382</v>
+        <v>0.0008677417953105383</v>
       </c>
       <c r="F1017" t="n">
         <v>0.4954984994998333</v>
@@ -22815,7 +22815,7 @@
         <v>964</v>
       </c>
       <c r="E1021" t="n">
-        <v>0.0003647816012815208</v>
+        <v>0.0003647816012815206</v>
       </c>
       <c r="F1021" t="n">
         <v>0.4552696078431372</v>
@@ -22837,7 +22837,7 @@
         <v>9067</v>
       </c>
       <c r="E1022" t="n">
-        <v>0.00033414393670604</v>
+        <v>0.0003341439367060401</v>
       </c>
       <c r="F1022" t="n">
         <v>0.4912396694214876</v>
@@ -22903,7 +22903,7 @@
         <v>2866</v>
       </c>
       <c r="E1025" t="n">
-        <v>0.0003301597169982204</v>
+        <v>0.0003301597169982206</v>
       </c>
       <c r="F1025" t="n">
         <v>0.4715963186290066</v>
@@ -22925,7 +22925,7 @@
         <v>4017</v>
       </c>
       <c r="E1026" t="n">
-        <v>0.001455030184034266</v>
+        <v>0.001455030184034265</v>
       </c>
       <c r="F1026" t="n">
         <v>0.4785829307568438</v>
@@ -22967,7 +22967,7 @@
         <v>5956</v>
       </c>
       <c r="E1028" t="n">
-        <v>0.001463665966411408</v>
+        <v>0.001463665966411407</v>
       </c>
       <c r="F1028" t="n">
         <v>0.4894598155467721</v>
@@ -23143,7 +23143,7 @@
         <v>5670</v>
       </c>
       <c r="E1036" t="n">
-        <v>0.0007218842368146884</v>
+        <v>0.0007218842368146885</v>
       </c>
       <c r="F1036" t="n">
         <v>0.4914021164021164</v>
@@ -23165,7 +23165,7 @@
         <v>3337</v>
       </c>
       <c r="E1037" t="n">
-        <v>0.0006325920295851232</v>
+        <v>0.0006325920295851231</v>
       </c>
       <c r="F1037" t="n">
         <v>0.4690656565656566</v>
@@ -23187,7 +23187,7 @@
         <v>14661</v>
       </c>
       <c r="E1038" t="n">
-        <v>0.0007892238730556183</v>
+        <v>0.0007892238730556185</v>
       </c>
       <c r="F1038" t="n">
         <v>0.5239774330042313</v>
@@ -23253,7 +23253,7 @@
         <v>12260</v>
       </c>
       <c r="E1041" t="n">
-        <v>0.0008371962185078269</v>
+        <v>0.0008371962185078272</v>
       </c>
       <c r="F1041" t="n">
         <v>0.5092529129540782</v>
@@ -23275,7 +23275,7 @@
         <v>14276</v>
       </c>
       <c r="E1042" t="n">
-        <v>0.0007352630958716513</v>
+        <v>0.0007352630958716512</v>
       </c>
       <c r="F1042" t="n">
         <v>0.5170494084899095</v>
@@ -23319,7 +23319,7 @@
         <v>6692</v>
       </c>
       <c r="E1044" t="n">
-        <v>0.0006156732638262244</v>
+        <v>0.0006156732638262245</v>
       </c>
       <c r="F1044" t="n">
         <v>0.4917273328921244</v>
@@ -23341,7 +23341,7 @@
         <v>16340</v>
       </c>
       <c r="E1045" t="n">
-        <v>0.0009408387031837869</v>
+        <v>0.000940838703183787</v>
       </c>
       <c r="F1045" t="n">
         <v>0.5267635590216235</v>
@@ -23363,7 +23363,7 @@
         <v>5701</v>
       </c>
       <c r="E1046" t="n">
-        <v>0.00564640141212298</v>
+        <v>0.005646401412122976</v>
       </c>
       <c r="F1046" t="n">
         <v>0.4938517779993353</v>
@@ -23407,7 +23407,7 @@
         <v>8423</v>
       </c>
       <c r="E1048" t="n">
-        <v>0.0009475583581645458</v>
+        <v>0.0009475583581645453</v>
       </c>
       <c r="F1048" t="n">
         <v>0.495663775850567</v>
@@ -23473,7 +23473,7 @@
         <v>5265</v>
       </c>
       <c r="E1051" t="n">
-        <v>0.002058247082106296</v>
+        <v>0.002058247082106297</v>
       </c>
       <c r="F1051" t="n">
         <v>0.4958291624958292</v>
@@ -23539,7 +23539,7 @@
         <v>2497</v>
       </c>
       <c r="E1054" t="n">
-        <v>0.0004654685557745078</v>
+        <v>0.0004654685557745077</v>
       </c>
       <c r="F1054" t="n">
         <v>0.4645201625507971</v>
@@ -23605,7 +23605,7 @@
         <v>606</v>
       </c>
       <c r="E1057" t="n">
-        <v>6.89204688312174e-05</v>
+        <v>6.892046883121743e-05</v>
       </c>
       <c r="F1057" t="n">
         <v>0.4397750813850252</v>
@@ -23627,7 +23627,7 @@
         <v>7540</v>
       </c>
       <c r="E1058" t="n">
-        <v>0.000625407537782319</v>
+        <v>0.0006254075377823189</v>
       </c>
       <c r="F1058" t="n">
         <v>0.4991602284178703</v>
@@ -23671,7 +23671,7 @@
         <v>19174</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.0021606807060597</v>
+        <v>0.002160680706059701</v>
       </c>
       <c r="F1060" t="n">
         <v>0.5449211587825449</v>
@@ -23715,7 +23715,7 @@
         <v>7740</v>
       </c>
       <c r="E1062" t="n">
-        <v>0.001033120062994289</v>
+        <v>0.00103312006299429</v>
       </c>
       <c r="F1062" t="n">
         <v>0.5016880486158002</v>
@@ -23759,7 +23759,7 @@
         <v>13757</v>
       </c>
       <c r="E1064" t="n">
-        <v>0.0007831702846666562</v>
+        <v>0.0007831702846666563</v>
       </c>
       <c r="F1064" t="n">
         <v>0.5143648321218415</v>
@@ -23803,7 +23803,7 @@
         <v>14669</v>
       </c>
       <c r="E1066" t="n">
-        <v>0.0008987714352112496</v>
+        <v>0.0008987714352112497</v>
       </c>
       <c r="F1066" t="n">
         <v>0.5256455606650159</v>
@@ -23825,7 +23825,7 @@
         <v>6333</v>
       </c>
       <c r="E1067" t="n">
-        <v>0.0006977274683419039</v>
+        <v>0.0006977274683419038</v>
       </c>
       <c r="F1067" t="n">
         <v>0.4909150974562272</v>
@@ -23847,7 +23847,7 @@
         <v>6818</v>
       </c>
       <c r="E1068" t="n">
-        <v>0.0009501454044678685</v>
+        <v>0.0009501454044678687</v>
       </c>
       <c r="F1068" t="n">
         <v>0.4991602284178703</v>
@@ -23869,7 +23869,7 @@
         <v>11</v>
       </c>
       <c r="E1069" t="n">
-        <v>0.0003031706929616223</v>
+        <v>0.0003031706929616224</v>
       </c>
       <c r="F1069" t="n">
         <v>0.3273848865388852</v>
@@ -23935,7 +23935,7 @@
         <v>1951</v>
       </c>
       <c r="E1072" t="n">
-        <v>0.0002532016665145727</v>
+        <v>0.0002532016665145726</v>
       </c>
       <c r="F1072" t="n">
         <v>0.4360328638497653</v>
@@ -24067,7 +24067,7 @@
         <v>10391</v>
       </c>
       <c r="E1078" t="n">
-        <v>0.001055755599546145</v>
+        <v>0.001055755599546144</v>
       </c>
       <c r="F1078" t="n">
         <v>0.5125905484649879</v>
@@ -24089,7 +24089,7 @@
         <v>3775</v>
       </c>
       <c r="E1079" t="n">
-        <v>0.001654356761742671</v>
+        <v>0.001654356761742672</v>
       </c>
       <c r="F1079" t="n">
         <v>0.4810618323081904</v>
@@ -24155,7 +24155,7 @@
         <v>12</v>
       </c>
       <c r="E1082" t="n">
-        <v>2.755338461883613e-06</v>
+        <v>2.755338461883612e-06</v>
       </c>
       <c r="F1082" t="n">
         <v>0.2698873955684707</v>
@@ -24221,7 +24221,7 @@
         <v>7213</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.0009029096284805308</v>
+        <v>0.000902909628480531</v>
       </c>
       <c r="F1085" t="n">
         <v>0.5008426019548365</v>
@@ -24243,7 +24243,7 @@
         <v>180</v>
       </c>
       <c r="E1086" t="n">
-        <v>4.031247737272182e-06</v>
+        <v>4.03124773727218e-06</v>
       </c>
       <c r="F1086" t="n">
         <v>0.4034754276405105</v>
@@ -24331,7 +24331,7 @@
         <v>12300</v>
       </c>
       <c r="E1090" t="n">
-        <v>0.001449317911136765</v>
+        <v>0.001449317911136764</v>
       </c>
       <c r="F1090" t="n">
         <v>0.5249028611797951</v>
@@ -24353,7 +24353,7 @@
         <v>2554</v>
       </c>
       <c r="E1091" t="n">
-        <v>0.0003973928549963829</v>
+        <v>0.000397392854996383</v>
       </c>
       <c r="F1091" t="n">
         <v>0.4668551680804273</v>
@@ -24441,7 +24441,7 @@
         <v>8555</v>
       </c>
       <c r="E1095" t="n">
-        <v>0.002224992138614099</v>
+        <v>0.002224992138614098</v>
       </c>
       <c r="F1095" t="n">
         <v>0.5115318416523236</v>
@@ -24463,7 +24463,7 @@
         <v>5247</v>
       </c>
       <c r="E1096" t="n">
-        <v>0.009836453427979839</v>
+        <v>0.009836453427979841</v>
       </c>
       <c r="F1096" t="n">
         <v>0.4945091514143095</v>
@@ -24485,7 +24485,7 @@
         <v>7012</v>
       </c>
       <c r="E1097" t="n">
-        <v>0.0008204701714500862</v>
+        <v>0.0008204701714500863</v>
       </c>
       <c r="F1097" t="n">
         <v>0.4941802460924509</v>
@@ -24507,7 +24507,7 @@
         <v>3434</v>
       </c>
       <c r="E1098" t="n">
-        <v>0.0008448967252015267</v>
+        <v>0.000844896725201527</v>
       </c>
       <c r="F1098" t="n">
         <v>0.4721957419764856</v>
@@ -24573,7 +24573,7 @@
         <v>5241</v>
       </c>
       <c r="E1101" t="n">
-        <v>0.0009297928771963237</v>
+        <v>0.0009297928771963235</v>
       </c>
       <c r="F1101" t="n">
         <v>0.4938517779993353</v>
@@ -24595,7 +24595,7 @@
         <v>296</v>
       </c>
       <c r="E1102" t="n">
-        <v>3.671776906533612e-06</v>
+        <v>3.671776906533614e-06</v>
       </c>
       <c r="F1102" t="n">
         <v>0.4233618233618233</v>
@@ -24639,7 +24639,7 @@
         <v>2577</v>
       </c>
       <c r="E1104" t="n">
-        <v>0.0002907533821765965</v>
+        <v>0.0002907533821765966</v>
       </c>
       <c r="F1104" t="n">
         <v>0.4775064267352185</v>
@@ -24683,7 +24683,7 @@
         <v>691</v>
       </c>
       <c r="E1106" t="n">
-        <v>8.297636270507551e-05</v>
+        <v>8.29763627050755e-05</v>
       </c>
       <c r="F1106" t="n">
         <v>0.4530487804878049</v>
@@ -24727,7 +24727,7 @@
         <v>16</v>
       </c>
       <c r="E1108" t="n">
-        <v>0.004310561922633437</v>
+        <v>0.004310561922633439</v>
       </c>
       <c r="F1108" t="n">
         <v>0.3196386319638632</v>
@@ -24771,7 +24771,7 @@
         <v>18</v>
       </c>
       <c r="E1110" t="n">
-        <v>0.0002592403293027412</v>
+        <v>0.0002592403293027411</v>
       </c>
       <c r="F1110" t="n">
         <v>0.3839793281653747</v>
@@ -24859,7 +24859,7 @@
         <v>103</v>
       </c>
       <c r="E1114" t="n">
-        <v>3.072184684705813e-06</v>
+        <v>3.072184684705814e-06</v>
       </c>
       <c r="F1114" t="n">
         <v>0.4141583054626533</v>
@@ -25057,7 +25057,7 @@
         <v>14399</v>
       </c>
       <c r="E1123" t="n">
-        <v>0.001104187154375332</v>
+        <v>0.001104187154375333</v>
       </c>
       <c r="F1123" t="n">
         <v>0.5288256227758007</v>
@@ -25079,7 +25079,7 @@
         <v>4866</v>
       </c>
       <c r="E1124" t="n">
-        <v>0.0006631032304863283</v>
+        <v>0.0006631032304863284</v>
       </c>
       <c r="F1124" t="n">
         <v>0.4959946595460614</v>
@@ -25101,7 +25101,7 @@
         <v>9877</v>
       </c>
       <c r="E1125" t="n">
-        <v>0.001089119654649688</v>
+        <v>0.001089119654649687</v>
       </c>
       <c r="F1125" t="n">
         <v>0.5118842576644851</v>
@@ -25123,7 +25123,7 @@
         <v>326</v>
       </c>
       <c r="E1126" t="n">
-        <v>9.956715983289584e-06</v>
+        <v>9.956715983289583e-06</v>
       </c>
       <c r="F1126" t="n">
         <v>0.4384774269696076</v>
@@ -25189,7 +25189,7 @@
         <v>444</v>
       </c>
       <c r="E1129" t="n">
-        <v>2.662397607149176e-05</v>
+        <v>2.662397607149177e-05</v>
       </c>
       <c r="F1129" t="n">
         <v>0.4342489772063121</v>
@@ -25233,7 +25233,7 @@
         <v>2098</v>
       </c>
       <c r="E1131" t="n">
-        <v>0.0008949905869831104</v>
+        <v>0.000894990586983111</v>
       </c>
       <c r="F1131" t="n">
         <v>0.4587835751775239</v>
@@ -25277,7 +25277,7 @@
         <v>1285</v>
       </c>
       <c r="E1133" t="n">
-        <v>3.519585281997889e-05</v>
+        <v>3.519585281997888e-05</v>
       </c>
       <c r="F1133" t="n">
         <v>0.4693619709412508</v>
@@ -25365,7 +25365,7 @@
         <v>11034</v>
       </c>
       <c r="E1137" t="n">
-        <v>0.000993359153908578</v>
+        <v>0.0009933591539085782</v>
       </c>
       <c r="F1137" t="n">
         <v>0.5177700348432056</v>
@@ -25409,7 +25409,7 @@
         <v>2422</v>
       </c>
       <c r="E1139" t="n">
-        <v>0.001711736290684307</v>
+        <v>0.001711736290684306</v>
       </c>
       <c r="F1139" t="n">
         <v>0.4738520408163265</v>
@@ -25475,7 +25475,7 @@
         <v>3222</v>
       </c>
       <c r="E1142" t="n">
-        <v>0.003203832551734022</v>
+        <v>0.003203832551734023</v>
       </c>
       <c r="F1142" t="n">
         <v>0.4768934531450577</v>
@@ -25497,7 +25497,7 @@
         <v>322</v>
       </c>
       <c r="E1143" t="n">
-        <v>9.351789116274719e-07</v>
+        <v>9.351789116274717e-07</v>
       </c>
       <c r="F1143" t="n">
         <v>0.4337419731465266</v>
@@ -25541,7 +25541,7 @@
         <v>6309</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.002124178319339208</v>
+        <v>0.002124178319339209</v>
       </c>
       <c r="F1145" t="n">
         <v>0.4976557267247153</v>
@@ -25651,7 +25651,7 @@
         <v>5226</v>
       </c>
       <c r="E1150" t="n">
-        <v>0.0005904604321110873</v>
+        <v>0.0005904604321110875</v>
       </c>
       <c r="F1150" t="n">
         <v>0.4931961500165948</v>
@@ -25695,7 +25695,7 @@
         <v>147</v>
       </c>
       <c r="E1152" t="n">
-        <v>7.773642898656122e-06</v>
+        <v>7.773642898656127e-06</v>
       </c>
       <c r="F1152" t="n">
         <v>0.4263988522238163</v>
@@ -25739,7 +25739,7 @@
         <v>9079</v>
       </c>
       <c r="E1154" t="n">
-        <v>0.0008837641669796919</v>
+        <v>0.0008837641669796918</v>
       </c>
       <c r="F1154" t="n">
         <v>0.5113558155540261</v>
@@ -25761,7 +25761,7 @@
         <v>11346</v>
       </c>
       <c r="E1155" t="n">
-        <v>0.002890020496514137</v>
+        <v>0.002890020496514138</v>
       </c>
       <c r="F1155" t="n">
         <v>0.5179505054025793</v>
@@ -25783,7 +25783,7 @@
         <v>14944</v>
       </c>
       <c r="E1156" t="n">
-        <v>0.0008506842433499874</v>
+        <v>0.0008506842433499876</v>
       </c>
       <c r="F1156" t="n">
         <v>0.5258315640481246</v>
@@ -25849,7 +25849,7 @@
         <v>12901</v>
       </c>
       <c r="E1159" t="n">
-        <v>0.002193186832475656</v>
+        <v>0.002193186832475657</v>
       </c>
       <c r="F1159" t="n">
         <v>0.5351098307526108</v>
@@ -25915,7 +25915,7 @@
         <v>4792</v>
       </c>
       <c r="E1162" t="n">
-        <v>0.0005439811238380818</v>
+        <v>0.0005439811238380822</v>
       </c>
       <c r="F1162" t="n">
         <v>0.4790457769181173</v>
@@ -25937,7 +25937,7 @@
         <v>9144</v>
       </c>
       <c r="E1163" t="n">
-        <v>0.0009963824854928543</v>
+        <v>0.0009963824854928541</v>
       </c>
       <c r="F1163" t="n">
         <v>0.5087298870249914</v>
@@ -25959,7 +25959,7 @@
         <v>7627</v>
       </c>
       <c r="E1164" t="n">
-        <v>0.0003871386590821158</v>
+        <v>0.0003871386590821159</v>
       </c>
       <c r="F1164" t="n">
         <v>0.4984904394498491</v>
@@ -26047,7 +26047,7 @@
         <v>14</v>
       </c>
       <c r="E1168" t="n">
-        <v>0.0002667522562277915</v>
+        <v>0.0002667522562277914</v>
       </c>
       <c r="F1168" t="n">
         <v>0.2641777777777778</v>
@@ -26069,7 +26069,7 @@
         <v>4614</v>
       </c>
       <c r="E1169" t="n">
-        <v>0.0004849173044536782</v>
+        <v>0.0004849173044536781</v>
       </c>
       <c r="F1169" t="n">
         <v>0.4894598155467721</v>
@@ -26135,7 +26135,7 @@
         <v>609</v>
       </c>
       <c r="E1172" t="n">
-        <v>0.0001764734828627333</v>
+        <v>0.0001764734828627332</v>
       </c>
       <c r="F1172" t="n">
         <v>0.4478601567209162</v>
@@ -26223,7 +26223,7 @@
         <v>5315</v>
       </c>
       <c r="E1176" t="n">
-        <v>0.0007030458091514322</v>
+        <v>0.0007030458091514325</v>
       </c>
       <c r="F1176" t="n">
         <v>0.4951682772409197</v>
@@ -26267,7 +26267,7 @@
         <v>5383</v>
       </c>
       <c r="E1178" t="n">
-        <v>0.001412590607905813</v>
+        <v>0.001412590607905814</v>
       </c>
       <c r="F1178" t="n">
         <v>0.485938521909745</v>
@@ -26311,7 +26311,7 @@
         <v>752</v>
       </c>
       <c r="E1180" t="n">
-        <v>8.482065162643587e-05</v>
+        <v>8.482065162643592e-05</v>
       </c>
       <c r="F1180" t="n">
         <v>0.4497578692493947</v>
@@ -26377,7 +26377,7 @@
         <v>7630</v>
       </c>
       <c r="E1183" t="n">
-        <v>0.0007739299996946135</v>
+        <v>0.0007739299996946136</v>
       </c>
       <c r="F1183" t="n">
         <v>0.5066484827821343</v>
@@ -26487,7 +26487,7 @@
         <v>5456</v>
       </c>
       <c r="E1188" t="n">
-        <v>0.00127930968560307</v>
+        <v>0.001279309685603071</v>
       </c>
       <c r="F1188" t="n">
         <v>0.4810618323081904</v>
@@ -26509,7 +26509,7 @@
         <v>5625</v>
       </c>
       <c r="E1189" t="n">
-        <v>0.0004581519573392685</v>
+        <v>0.0004581519573392684</v>
       </c>
       <c r="F1189" t="n">
         <v>0.4880131362889984</v>
@@ -26553,7 +26553,7 @@
         <v>2386</v>
       </c>
       <c r="E1191" t="n">
-        <v>0.0001784291494379643</v>
+        <v>0.0001784291494379642</v>
       </c>
       <c r="F1191" t="n">
         <v>0.4740031897926635</v>
@@ -26619,7 +26619,7 @@
         <v>126</v>
       </c>
       <c r="E1194" t="n">
-        <v>6.424085384235375e-05</v>
+        <v>6.424085384235372e-05</v>
       </c>
       <c r="F1194" t="n">
         <v>0.3654697491392031</v>
@@ -26641,7 +26641,7 @@
         <v>581</v>
       </c>
       <c r="E1195" t="n">
-        <v>4.092992023245374e-05</v>
+        <v>4.092992023245373e-05</v>
       </c>
       <c r="F1195" t="n">
         <v>0.4509863429438543</v>
@@ -26685,7 +26685,7 @@
         <v>921</v>
       </c>
       <c r="E1197" t="n">
-        <v>7.016940213638505e-05</v>
+        <v>7.016940213638502e-05</v>
       </c>
       <c r="F1197" t="n">
         <v>0.4477252184392889</v>
@@ -26707,7 +26707,7 @@
         <v>1446</v>
       </c>
       <c r="E1198" t="n">
-        <v>0.0001217433795774095</v>
+        <v>0.0001217433795774094</v>
       </c>
       <c r="F1198" t="n">
         <v>0.4594928880643167</v>
@@ -26729,7 +26729,7 @@
         <v>108</v>
       </c>
       <c r="E1199" t="n">
-        <v>1.79460293028631e-05</v>
+        <v>1.794602930286309e-05</v>
       </c>
       <c r="F1199" t="n">
         <v>0.4202488687782806</v>
@@ -26817,7 +26817,7 @@
         <v>869</v>
       </c>
       <c r="E1203" t="n">
-        <v>9.142357629432362e-05</v>
+        <v>9.142357629432363e-05</v>
       </c>
       <c r="F1203" t="n">
         <v>0.4602043976463301</v>
@@ -26883,7 +26883,7 @@
         <v>7248</v>
       </c>
       <c r="E1206" t="n">
-        <v>0.0008421660291126883</v>
+        <v>0.0008421660291126882</v>
       </c>
       <c r="F1206" t="n">
         <v>0.4991602284178703</v>
@@ -26905,7 +26905,7 @@
         <v>1497</v>
       </c>
       <c r="E1207" t="n">
-        <v>0.003853534199626562</v>
+        <v>0.003853534199626559</v>
       </c>
       <c r="F1207" t="n">
         <v>0.4664155681104834</v>
@@ -26927,7 +26927,7 @@
         <v>163</v>
       </c>
       <c r="E1208" t="n">
-        <v>9.822850067631707e-06</v>
+        <v>9.822850067631705e-06</v>
       </c>
       <c r="F1208" t="n">
         <v>0.4028191921930062</v>
@@ -26971,7 +26971,7 @@
         <v>8103</v>
       </c>
       <c r="E1210" t="n">
-        <v>0.00109150232597444</v>
+        <v>0.001091502325974441</v>
       </c>
       <c r="F1210" t="n">
         <v>0.5157931273863242</v>
@@ -26993,7 +26993,7 @@
         <v>7486</v>
       </c>
       <c r="E1211" t="n">
-        <v>0.0006385716378055202</v>
+        <v>0.0006385716378055203</v>
       </c>
       <c r="F1211" t="n">
         <v>0.505098572399728</v>
@@ -27059,7 +27059,7 @@
         <v>45</v>
       </c>
       <c r="E1214" t="n">
-        <v>3.957062644329854e-05</v>
+        <v>3.957062644329856e-05</v>
       </c>
       <c r="F1214" t="n">
         <v>0.3858737990132433</v>
@@ -27191,7 +27191,7 @@
         <v>41</v>
       </c>
       <c r="E1220" t="n">
-        <v>0.0005470035739081879</v>
+        <v>0.0005470035739081877</v>
       </c>
       <c r="F1220" t="n">
         <v>0.3298557158712542</v>
@@ -27213,7 +27213,7 @@
         <v>50</v>
       </c>
       <c r="E1221" t="n">
-        <v>3.217846626701813e-07</v>
+        <v>3.217846626701812e-07</v>
       </c>
       <c r="F1221" t="n">
         <v>0.403804347826087</v>
@@ -27257,7 +27257,7 @@
         <v>782</v>
       </c>
       <c r="E1223" t="n">
-        <v>0.0002315352284748834</v>
+        <v>0.0002315352284748835</v>
       </c>
       <c r="F1223" t="n">
         <v>0.4417360285374554</v>
@@ -27389,7 +27389,7 @@
         <v>16</v>
       </c>
       <c r="E1229" t="n">
-        <v>2.736200857003333e-09</v>
+        <v>2.736200857003332e-09</v>
       </c>
       <c r="F1229" t="n">
         <v>0.4</v>
@@ -27521,7 +27521,7 @@
         <v>1273</v>
       </c>
       <c r="E1235" t="n">
-        <v>9.949448687948927e-05</v>
+        <v>9.949448687948925e-05</v>
       </c>
       <c r="F1235" t="n">
         <v>0.4609181141439206</v>
@@ -27741,7 +27741,7 @@
         <v>5555</v>
       </c>
       <c r="E1245" t="n">
-        <v>0.0006668177287006244</v>
+        <v>0.0006668177287006245</v>
       </c>
       <c r="F1245" t="n">
         <v>0.482154445165477</v>
@@ -27807,7 +27807,7 @@
         <v>50</v>
       </c>
       <c r="E1248" t="n">
-        <v>3.047700808128999e-05</v>
+        <v>3.047700808129e-05</v>
       </c>
       <c r="F1248" t="n">
         <v>0.3729919678714859</v>
@@ -27873,7 +27873,7 @@
         <v>8802</v>
       </c>
       <c r="E1251" t="n">
-        <v>0.0009534787234381519</v>
+        <v>0.0009534787234381524</v>
       </c>
       <c r="F1251" t="n">
         <v>0.5184926727145848</v>
@@ -27895,7 +27895,7 @@
         <v>284</v>
       </c>
       <c r="E1252" t="n">
-        <v>5.478979033612784e-07</v>
+        <v>5.478979033612783e-07</v>
       </c>
       <c r="F1252" t="n">
         <v>0.4323537969159151</v>
@@ -28027,7 +28027,7 @@
         <v>10255</v>
       </c>
       <c r="E1258" t="n">
-        <v>0.0009295502027781031</v>
+        <v>0.0009295502027781034</v>
       </c>
       <c r="F1258" t="n">
         <v>0.5125905484649879</v>
@@ -28071,7 +28071,7 @@
         <v>8704</v>
       </c>
       <c r="E1260" t="n">
-        <v>0.0005939676149645778</v>
+        <v>0.000593967614964578</v>
       </c>
       <c r="F1260" t="n">
         <v>0.5063032367972743</v>
@@ -28137,7 +28137,7 @@
         <v>14212</v>
       </c>
       <c r="E1263" t="n">
-        <v>0.0007907540984687026</v>
+        <v>0.0007907540984687027</v>
       </c>
       <c r="F1263" t="n">
         <v>0.5066484827821343</v>
@@ -28159,7 +28159,7 @@
         <v>5405</v>
       </c>
       <c r="E1264" t="n">
-        <v>0.003489701731299987</v>
+        <v>0.003489701731299988</v>
       </c>
       <c r="F1264" t="n">
         <v>0.4969899665551839</v>
@@ -28181,7 +28181,7 @@
         <v>2346</v>
       </c>
       <c r="E1265" t="n">
-        <v>0.0008081484128156337</v>
+        <v>0.0008081484128156339</v>
       </c>
       <c r="F1265" t="n">
         <v>0.4652473387601753</v>
@@ -28203,7 +28203,7 @@
         <v>3256</v>
       </c>
       <c r="E1266" t="n">
-        <v>0.0004946332570837202</v>
+        <v>0.0004946332570837199</v>
       </c>
       <c r="F1266" t="n">
         <v>0.4756722151088348</v>
@@ -28225,7 +28225,7 @@
         <v>5383</v>
       </c>
       <c r="E1267" t="n">
-        <v>0.000608535314019513</v>
+        <v>0.0006085353140195132</v>
       </c>
       <c r="F1267" t="n">
         <v>0.4912396694214876</v>
@@ -28311,7 +28311,7 @@
         <v>11826</v>
       </c>
       <c r="E1271" t="n">
-        <v>0.0007020296897204459</v>
+        <v>0.0007020296897204456</v>
       </c>
       <c r="F1271" t="n">
         <v>0.5006738544474394</v>
@@ -28399,7 +28399,7 @@
         <v>15</v>
       </c>
       <c r="E1275" t="n">
-        <v>0.0003206526824657925</v>
+        <v>0.0003206526824657927</v>
       </c>
       <c r="F1275" t="n">
         <v>0.384774728120145</v>
@@ -28487,7 +28487,7 @@
         <v>7984</v>
       </c>
       <c r="E1279" t="n">
-        <v>0.0006072739586242577</v>
+        <v>0.000607273958624258</v>
       </c>
       <c r="F1279" t="n">
         <v>0.4984904394498491</v>
@@ -28597,7 +28597,7 @@
         <v>46</v>
       </c>
       <c r="E1284" t="n">
-        <v>3.645615626326913e-05</v>
+        <v>3.645615626326912e-05</v>
       </c>
       <c r="F1284" t="n">
         <v>0.3438223044886627</v>
@@ -28729,7 +28729,7 @@
         <v>6541</v>
       </c>
       <c r="E1290" t="n">
-        <v>0.0009524093037861299</v>
+        <v>0.0009524093037861303</v>
       </c>
       <c r="F1290" t="n">
         <v>0.4848287112561175</v>
@@ -28751,7 +28751,7 @@
         <v>1635</v>
       </c>
       <c r="E1291" t="n">
-        <v>0.0001780414289009847</v>
+        <v>0.0001780414289009846</v>
       </c>
       <c r="F1291" t="n">
         <v>0.4671486953788117</v>
@@ -28773,7 +28773,7 @@
         <v>11106</v>
       </c>
       <c r="E1292" t="n">
-        <v>0.001396600807281622</v>
+        <v>0.001396600807281621</v>
       </c>
       <c r="F1292" t="n">
         <v>0.5250883392226148</v>
@@ -28839,7 +28839,7 @@
         <v>7628</v>
       </c>
       <c r="E1295" t="n">
-        <v>0.0011316455104845</v>
+        <v>0.001131645510484499</v>
       </c>
       <c r="F1295" t="n">
         <v>0.4984904394498491</v>
@@ -28861,7 +28861,7 @@
         <v>6495</v>
       </c>
       <c r="E1296" t="n">
-        <v>0.002427438296778928</v>
+        <v>0.002427438296778929</v>
       </c>
       <c r="F1296" t="n">
         <v>0.5030467163168585</v>
@@ -28905,7 +28905,7 @@
         <v>35</v>
       </c>
       <c r="E1298" t="n">
-        <v>3.822093424794971e-06</v>
+        <v>3.822093424794973e-06</v>
       </c>
       <c r="F1298" t="n">
         <v>0.3479278857410443</v>
@@ -28949,7 +28949,7 @@
         <v>947</v>
       </c>
       <c r="E1300" t="n">
-        <v>2.491647898262599e-05</v>
+        <v>2.491647898262598e-05</v>
       </c>
       <c r="F1300" t="n">
         <v>0.4540177207454934</v>
@@ -29147,7 +29147,7 @@
         <v>5929</v>
       </c>
       <c r="E1309" t="n">
-        <v>0.002411308416028168</v>
+        <v>0.002411308416028169</v>
       </c>
       <c r="F1309" t="n">
         <v>0.4862565445026178</v>
@@ -29169,7 +29169,7 @@
         <v>3498</v>
       </c>
       <c r="E1310" t="n">
-        <v>0.0003710129519447042</v>
+        <v>0.0003710129519447043</v>
       </c>
       <c r="F1310" t="n">
         <v>0.4785829307568438</v>
@@ -29323,7 +29323,7 @@
         <v>145</v>
       </c>
       <c r="E1317" t="n">
-        <v>3.544695025124367e-05</v>
+        <v>3.544695025124368e-05</v>
       </c>
       <c r="F1317" t="n">
         <v>0.4318512060447545</v>
@@ -29367,7 +29367,7 @@
         <v>4344</v>
       </c>
       <c r="E1319" t="n">
-        <v>0.002206423999998008</v>
+        <v>0.002206423999998007</v>
       </c>
       <c r="F1319" t="n">
         <v>0.4864157119476269</v>
@@ -29389,7 +29389,7 @@
         <v>1292</v>
       </c>
       <c r="E1320" t="n">
-        <v>0.0001135687065204633</v>
+        <v>0.0001135687065204632</v>
       </c>
       <c r="F1320" t="n">
         <v>0.4678841309823678</v>
@@ -29455,7 +29455,7 @@
         <v>7621</v>
       </c>
       <c r="E1323" t="n">
-        <v>0.001040741417493731</v>
+        <v>0.001040741417493732</v>
       </c>
       <c r="F1323" t="n">
         <v>0.5111799105607155</v>
@@ -29521,7 +29521,7 @@
         <v>983</v>
       </c>
       <c r="E1326" t="n">
-        <v>5.15038751391147e-05</v>
+        <v>5.150387513911469e-05</v>
       </c>
       <c r="F1326" t="n">
         <v>0.4583590376310919</v>
@@ -29543,7 +29543,7 @@
         <v>2698</v>
       </c>
       <c r="E1327" t="n">
-        <v>0.000877235506369641</v>
+        <v>0.0008772355063696411</v>
       </c>
       <c r="F1327" t="n">
         <v>0.4733991717107359</v>
@@ -29609,7 +29609,7 @@
         <v>6860</v>
       </c>
       <c r="E1330" t="n">
-        <v>0.0008080147512843838</v>
+        <v>0.0008080147512843837</v>
       </c>
       <c r="F1330" t="n">
         <v>0.5068212824010914</v>
@@ -29631,7 +29631,7 @@
         <v>10478</v>
       </c>
       <c r="E1331" t="n">
-        <v>0.0006974294254422255</v>
+        <v>0.0006974294254422253</v>
       </c>
       <c r="F1331" t="n">
         <v>0.518673647469459</v>
@@ -29675,7 +29675,7 @@
         <v>4281</v>
       </c>
       <c r="E1333" t="n">
-        <v>0.0005694492720021711</v>
+        <v>0.0005694492720021712</v>
       </c>
       <c r="F1333" t="n">
         <v>0.4793548387096774</v>
@@ -29697,7 +29697,7 @@
         <v>8411</v>
       </c>
       <c r="E1334" t="n">
-        <v>0.0005012388730960025</v>
+        <v>0.0005012388730960024</v>
       </c>
       <c r="F1334" t="n">
         <v>0.5099519560741249</v>
@@ -29785,7 +29785,7 @@
         <v>2762</v>
       </c>
       <c r="E1338" t="n">
-        <v>0.000291783516463433</v>
+        <v>0.0002917835164634329</v>
       </c>
       <c r="F1338" t="n">
         <v>0.4799741602067183</v>
@@ -29807,7 +29807,7 @@
         <v>5521</v>
       </c>
       <c r="E1339" t="n">
-        <v>0.001278695812086762</v>
+        <v>0.001278695812086761</v>
       </c>
       <c r="F1339" t="n">
         <v>0.4819980538436587</v>
@@ -29829,7 +29829,7 @@
         <v>33</v>
       </c>
       <c r="E1340" t="n">
-        <v>4.69085422728529e-05</v>
+        <v>4.690854227285291e-05</v>
       </c>
       <c r="F1340" t="n">
         <v>0.2988736926790024</v>
@@ -29851,7 +29851,7 @@
         <v>5378</v>
       </c>
       <c r="E1341" t="n">
-        <v>0.0007155088473974639</v>
+        <v>0.0007155088473974642</v>
       </c>
       <c r="F1341" t="n">
         <v>0.4888157894736842</v>
@@ -29895,7 +29895,7 @@
         <v>5815</v>
       </c>
       <c r="E1343" t="n">
-        <v>0.001145142218779888</v>
+        <v>0.001145142218779889</v>
       </c>
       <c r="F1343" t="n">
         <v>0.489137590520079</v>
@@ -29961,7 +29961,7 @@
         <v>13489</v>
       </c>
       <c r="E1346" t="n">
-        <v>0.0006402519385112468</v>
+        <v>0.0006402519385112469</v>
       </c>
       <c r="F1346" t="n">
         <v>0.5225035161744023</v>
@@ -29983,7 +29983,7 @@
         <v>179</v>
       </c>
       <c r="E1347" t="n">
-        <v>0.0009895105522665941</v>
+        <v>0.0009895105522665945</v>
       </c>
       <c r="F1347" t="n">
         <v>0.4206057175205208</v>
@@ -30005,7 +30005,7 @@
         <v>5656</v>
       </c>
       <c r="E1348" t="n">
-        <v>0.0009466354978761391</v>
+        <v>0.0009466354978761386</v>
       </c>
       <c r="F1348" t="n">
         <v>0.4943446440452429</v>
@@ -30049,7 +30049,7 @@
         <v>1570</v>
       </c>
       <c r="E1350" t="n">
-        <v>0.0002432590873240207</v>
+        <v>0.0002432590873240208</v>
       </c>
       <c r="F1350" t="n">
         <v>0.4599195295574126</v>
@@ -30137,7 +30137,7 @@
         <v>622</v>
       </c>
       <c r="E1354" t="n">
-        <v>0.0001986713892488943</v>
+        <v>0.0001986713892488942</v>
       </c>
       <c r="F1354" t="n">
         <v>0.4484007242003621</v>
@@ -30269,7 +30269,7 @@
         <v>14101</v>
       </c>
       <c r="E1360" t="n">
-        <v>0.0008119020845624591</v>
+        <v>0.0008119020845624592</v>
       </c>
       <c r="F1360" t="n">
         <v>0.5223198594024605</v>
@@ -30313,7 +30313,7 @@
         <v>1661</v>
       </c>
       <c r="E1362" t="n">
-        <v>8.283348691149699e-05</v>
+        <v>8.283348691149697e-05</v>
       </c>
       <c r="F1362" t="n">
         <v>0.4606323620582765</v>
@@ -30357,7 +30357,7 @@
         <v>4470</v>
       </c>
       <c r="E1364" t="n">
-        <v>0.0004742689548992982</v>
+        <v>0.0004742689548992981</v>
       </c>
       <c r="F1364" t="n">
         <v>0.4776599164255866</v>
@@ -30423,7 +30423,7 @@
         <v>2193</v>
       </c>
       <c r="E1367" t="n">
-        <v>0.0002542728966003552</v>
+        <v>0.000254272896600355</v>
       </c>
       <c r="F1367" t="n">
         <v>0.4740031897926635</v>
@@ -30489,7 +30489,7 @@
         <v>1024</v>
       </c>
       <c r="E1370" t="n">
-        <v>3.731885955179699e-05</v>
+        <v>3.7318859551797e-05</v>
       </c>
       <c r="F1370" t="n">
         <v>0.4568090992929603</v>
@@ -30511,7 +30511,7 @@
         <v>11164</v>
       </c>
       <c r="E1371" t="n">
-        <v>0.0007872671037992279</v>
+        <v>0.0007872671037992277</v>
       </c>
       <c r="F1371" t="n">
         <v>0.5181311018131102</v>
@@ -30555,7 +30555,7 @@
         <v>1874</v>
       </c>
       <c r="E1373" t="n">
-        <v>0.005850692962897089</v>
+        <v>0.00585069296289709</v>
       </c>
       <c r="F1373" t="n">
         <v>0.4612042209807573</v>
@@ -30621,7 +30621,7 @@
         <v>12569</v>
       </c>
       <c r="E1376" t="n">
-        <v>0.001008549417569343</v>
+        <v>0.001008549417569342</v>
       </c>
       <c r="F1376" t="n">
         <v>0.5161514414727335</v>
@@ -30687,7 +30687,7 @@
         <v>2814</v>
       </c>
       <c r="E1379" t="n">
-        <v>0.003378318040638932</v>
+        <v>0.003378318040638931</v>
       </c>
       <c r="F1379" t="n">
         <v>0.4668551680804273</v>
@@ -30709,7 +30709,7 @@
         <v>12929</v>
       </c>
       <c r="E1380" t="n">
-        <v>0.001241733193078251</v>
+        <v>0.001241733193078252</v>
       </c>
       <c r="F1380" t="n">
         <v>0.5271372827243703</v>
@@ -30753,7 +30753,7 @@
         <v>564</v>
       </c>
       <c r="E1382" t="n">
-        <v>8.005824200094936e-05</v>
+        <v>8.005824200094935e-05</v>
       </c>
       <c r="F1382" t="n">
         <v>0.4412114014251782</v>
@@ -30797,7 +30797,7 @@
         <v>53</v>
       </c>
       <c r="E1384" t="n">
-        <v>2.145681438675363e-05</v>
+        <v>2.145681438675364e-05</v>
       </c>
       <c r="F1384" t="n">
         <v>0.3764884722574107</v>
@@ -30819,7 +30819,7 @@
         <v>14041</v>
       </c>
       <c r="E1385" t="n">
-        <v>0.00112566903679376</v>
+        <v>0.001125669036793761</v>
       </c>
       <c r="F1385" t="n">
         <v>0.5269503546099291</v>
@@ -30907,7 +30907,7 @@
         <v>11182</v>
       </c>
       <c r="E1389" t="n">
-        <v>0.0007143357674620567</v>
+        <v>0.0007143357674620569</v>
       </c>
       <c r="F1389" t="n">
         <v>0.5183118242064876</v>
@@ -30973,7 +30973,7 @@
         <v>2477</v>
       </c>
       <c r="E1392" t="n">
-        <v>0.0004645369204018073</v>
+        <v>0.0004645369204018071</v>
       </c>
       <c r="F1392" t="n">
         <v>0.4417360285374554</v>
@@ -30995,7 +30995,7 @@
         <v>2064</v>
       </c>
       <c r="E1393" t="n">
-        <v>0.008366120492153212</v>
+        <v>0.008366120492153208</v>
       </c>
       <c r="F1393" t="n">
         <v>0.4684741488020177</v>
@@ -31017,7 +31017,7 @@
         <v>845</v>
       </c>
       <c r="E1394" t="n">
-        <v>0.0002557881246248436</v>
+        <v>0.0002557881246248434</v>
       </c>
       <c r="F1394" t="n">
         <v>0.4449101796407186</v>
@@ -31149,7 +31149,7 @@
         <v>10208</v>
       </c>
       <c r="E1400" t="n">
-        <v>0.0007932065893955458</v>
+        <v>0.0007932065893955459</v>
       </c>
       <c r="F1400" t="n">
         <v>0.515256588072122</v>
@@ -31193,7 +31193,7 @@
         <v>4441</v>
       </c>
       <c r="E1402" t="n">
-        <v>0.0005910777797834504</v>
+        <v>0.0005910777797834506</v>
       </c>
       <c r="F1402" t="n">
         <v>0.4807505661598189</v>
@@ -31281,7 +31281,7 @@
         <v>30</v>
       </c>
       <c r="E1406" t="n">
-        <v>0.0001321231224088229</v>
+        <v>0.0001321231224088228</v>
       </c>
       <c r="F1406" t="n">
         <v>0.3219934994582882</v>
@@ -31367,7 +31367,7 @@
         <v>1012</v>
       </c>
       <c r="E1410" t="n">
-        <v>0.0002922770451689524</v>
+        <v>0.0002922770451689525</v>
       </c>
       <c r="F1410" t="n">
         <v>0.4548515457606367</v>
@@ -31477,7 +31477,7 @@
         <v>15096</v>
       </c>
       <c r="E1415" t="n">
-        <v>0.0009945372108511178</v>
+        <v>0.0009945372108511184</v>
       </c>
       <c r="F1415" t="n">
         <v>0.5278863232682061</v>
@@ -31543,7 +31543,7 @@
         <v>855</v>
       </c>
       <c r="E1418" t="n">
-        <v>5.84595469531363e-05</v>
+        <v>5.845954695313626e-05</v>
       </c>
       <c r="F1418" t="n">
         <v>0.4635059263880225</v>
@@ -31565,7 +31565,7 @@
         <v>1798</v>
       </c>
       <c r="E1419" t="n">
-        <v>0.0002629337266176263</v>
+        <v>0.0002629337266176262</v>
       </c>
       <c r="F1419" t="n">
         <v>0.4749121124960051</v>
@@ -31675,7 +31675,7 @@
         <v>9212</v>
       </c>
       <c r="E1424" t="n">
-        <v>0.003087878892197402</v>
+        <v>0.003087878892197403</v>
       </c>
       <c r="F1424" t="n">
         <v>0.5237927388086007</v>
@@ -31697,7 +31697,7 @@
         <v>11262</v>
       </c>
       <c r="E1425" t="n">
-        <v>0.0007913666250679401</v>
+        <v>0.00079136662506794</v>
       </c>
       <c r="F1425" t="n">
         <v>0.5236081747709654</v>
@@ -31741,7 +31741,7 @@
         <v>7124</v>
       </c>
       <c r="E1427" t="n">
-        <v>0.002239293997117794</v>
+        <v>0.002239293997117793</v>
       </c>
       <c r="F1427" t="n">
         <v>0.4948384948384948</v>
@@ -31763,7 +31763,7 @@
         <v>8024</v>
       </c>
       <c r="E1428" t="n">
-        <v>0.0009823375683582589</v>
+        <v>0.0009823375683582591</v>
       </c>
       <c r="F1428" t="n">
         <v>0.5168695652173914</v>
@@ -31829,7 +31829,7 @@
         <v>12344</v>
       </c>
       <c r="E1431" t="n">
-        <v>0.01891891919753353</v>
+        <v>0.01891891919753352</v>
       </c>
       <c r="F1431" t="n">
         <v>0.5349172066234701</v>
@@ -31939,7 +31939,7 @@
         <v>14721</v>
       </c>
       <c r="E1436" t="n">
-        <v>0.002015429591486434</v>
+        <v>0.002015429591486433</v>
       </c>
       <c r="F1436" t="n">
         <v>0.5343401654081266</v>
@@ -31961,7 +31961,7 @@
         <v>38</v>
       </c>
       <c r="E1437" t="n">
-        <v>0.0001222341458298058</v>
+        <v>0.0001222341458298059</v>
       </c>
       <c r="F1437" t="n">
         <v>0.3065813905508562</v>
@@ -32027,7 +32027,7 @@
         <v>7861</v>
       </c>
       <c r="E1440" t="n">
-        <v>0.0009561912384672342</v>
+        <v>0.000956191238467234</v>
       </c>
       <c r="F1440" t="n">
         <v>0.4963259853039412</v>
@@ -32049,7 +32049,7 @@
         <v>10325</v>
       </c>
       <c r="E1441" t="n">
-        <v>0.0009610786415257067</v>
+        <v>0.0009610786415257068</v>
       </c>
       <c r="F1441" t="n">
         <v>0.521220624342336</v>
@@ -32159,7 +32159,7 @@
         <v>10597</v>
       </c>
       <c r="E1446" t="n">
-        <v>0.0005537352851005907</v>
+        <v>0.0005537352851005908</v>
       </c>
       <c r="F1446" t="n">
         <v>0.5166898470097357</v>
@@ -32181,7 +32181,7 @@
         <v>4792</v>
       </c>
       <c r="E1447" t="n">
-        <v>0.002482999562082061</v>
+        <v>0.00248299956208206</v>
       </c>
       <c r="F1447" t="n">
         <v>0.4876928126025599</v>
@@ -32225,7 +32225,7 @@
         <v>117</v>
       </c>
       <c r="E1449" t="n">
-        <v>2.543708169823289e-05</v>
+        <v>2.543708169823288e-05</v>
       </c>
       <c r="F1449" t="n">
         <v>0.4275028768699655</v>
@@ -32269,7 +32269,7 @@
         <v>3981</v>
       </c>
       <c r="E1451" t="n">
-        <v>0.0002723020266512829</v>
+        <v>0.000272302026651283</v>
       </c>
       <c r="F1451" t="n">
         <v>0.4779671920231586</v>
@@ -32313,7 +32313,7 @@
         <v>8552</v>
       </c>
       <c r="E1453" t="n">
-        <v>0.0008732477987957665</v>
+        <v>0.0008732477987957666</v>
       </c>
       <c r="F1453" t="n">
         <v>0.5018574805808849</v>
@@ -32357,7 +32357,7 @@
         <v>73</v>
       </c>
       <c r="E1455" t="n">
-        <v>0.0002989683326026299</v>
+        <v>0.00029896833260263</v>
       </c>
       <c r="F1455" t="n">
         <v>0.3977516059957173</v>
@@ -32423,7 +32423,7 @@
         <v>8527</v>
       </c>
       <c r="E1458" t="n">
-        <v>0.0009628944440015219</v>
+        <v>0.0009628944440015217</v>
       </c>
       <c r="F1458" t="n">
         <v>0.4918901026150281</v>
@@ -32467,7 +32467,7 @@
         <v>4242</v>
       </c>
       <c r="E1460" t="n">
-        <v>0.0005871387375638241</v>
+        <v>0.0005871387375638242</v>
       </c>
       <c r="F1460" t="n">
         <v>0.4823109380071405</v>
@@ -32489,7 +32489,7 @@
         <v>7976</v>
       </c>
       <c r="E1461" t="n">
-        <v>0.00190262146905157</v>
+        <v>0.001902621469051571</v>
       </c>
       <c r="F1461" t="n">
         <v>0.5134761575673807</v>
@@ -32533,7 +32533,7 @@
         <v>1652</v>
       </c>
       <c r="E1463" t="n">
-        <v>0.0001779866015131228</v>
+        <v>0.0001779866015131229</v>
       </c>
       <c r="F1463" t="n">
         <v>0.4729471674092934</v>
@@ -32621,7 +32621,7 @@
         <v>9445</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.002109519713560552</v>
+        <v>0.002109519713560551</v>
       </c>
       <c r="F1467" t="n">
         <v>0.5193988116043341</v>
@@ -32709,7 +32709,7 @@
         <v>3439</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.0008588153833883704</v>
+        <v>0.0008588153833883706</v>
       </c>
       <c r="F1471" t="n">
         <v>0.4648107600875822</v>
@@ -32951,7 +32951,7 @@
         <v>33</v>
       </c>
       <c r="E1482" t="n">
-        <v>4.69085422728529e-05</v>
+        <v>4.690854227285291e-05</v>
       </c>
       <c r="F1482" t="n">
         <v>0.2988736926790024</v>
@@ -33061,7 +33061,7 @@
         <v>10896</v>
       </c>
       <c r="E1487" t="n">
-        <v>0.001200217321258053</v>
+        <v>0.001200217321258054</v>
       </c>
       <c r="F1487" t="n">
         <v>0.5241622574955909</v>
@@ -33083,7 +33083,7 @@
         <v>495</v>
       </c>
       <c r="E1488" t="n">
-        <v>5.073933606821527e-05</v>
+        <v>5.073933606821528e-05</v>
       </c>
       <c r="F1488" t="n">
         <v>0.4435820895522388</v>
@@ -33105,7 +33105,7 @@
         <v>7692</v>
       </c>
       <c r="E1489" t="n">
-        <v>0.004766061922106386</v>
+        <v>0.004766061922106387</v>
       </c>
       <c r="F1489" t="n">
         <v>0.507340389211335</v>
@@ -33193,7 +33193,7 @@
         <v>427</v>
       </c>
       <c r="E1493" t="n">
-        <v>7.601980519453724e-05</v>
+        <v>7.601980519453723e-05</v>
       </c>
       <c r="F1493" t="n">
         <v>0.4435820895522388</v>
@@ -33215,7 +33215,7 @@
         <v>7690</v>
       </c>
       <c r="E1494" t="n">
-        <v>0.0009325631475579734</v>
+        <v>0.0009325631475579733</v>
       </c>
       <c r="F1494" t="n">
         <v>0.5066484827821343</v>
@@ -33237,7 +33237,7 @@
         <v>760</v>
       </c>
       <c r="E1495" t="n">
-        <v>8.528069087917014e-05</v>
+        <v>8.528069087917009e-05</v>
       </c>
       <c r="F1495" t="n">
         <v>0.4425253126861227</v>
@@ -33325,7 +33325,7 @@
         <v>3062</v>
       </c>
       <c r="E1499" t="n">
-        <v>0.0006340357998839887</v>
+        <v>0.0006340357998839886</v>
       </c>
       <c r="F1499" t="n">
         <v>0.4764347547290799</v>
@@ -33413,7 +33413,7 @@
         <v>3174</v>
       </c>
       <c r="E1503" t="n">
-        <v>0.000333076409143644</v>
+        <v>0.0003330764091436441</v>
       </c>
       <c r="F1503" t="n">
         <v>0.4665620094191523</v>
@@ -33435,7 +33435,7 @@
         <v>13900</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.001261301635589845</v>
+        <v>0.001261301635589844</v>
       </c>
       <c r="F1504" t="n">
         <v>0.5239774330042313</v>
@@ -33479,7 +33479,7 @@
         <v>26</v>
       </c>
       <c r="E1506" t="n">
-        <v>0.003924596407224925</v>
+        <v>0.003924596407224926</v>
       </c>
       <c r="F1506" t="n">
         <v>0.3696517412935323</v>
@@ -33501,7 +33501,7 @@
         <v>18</v>
       </c>
       <c r="E1507" t="n">
-        <v>2.345410667592719e-08</v>
+        <v>2.34541066759272e-08</v>
       </c>
       <c r="F1507" t="n">
         <v>0.4007551240560949</v>
@@ -33567,7 +33567,7 @@
         <v>16</v>
       </c>
       <c r="E1510" t="n">
-        <v>5.425820138450606e-09</v>
+        <v>5.425820138450607e-09</v>
       </c>
       <c r="F1510" t="n">
         <v>0.4083539433910415</v>
@@ -33589,7 +33589,7 @@
         <v>65</v>
       </c>
       <c r="E1511" t="n">
-        <v>0.005821011946082495</v>
+        <v>0.005821011946082498</v>
       </c>
       <c r="F1511" t="n">
         <v>0.3914646996838778</v>
